--- a/matury/2020/zad6.xlsx
+++ b/matury/2020/zad6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bartek/dev/other/informatyka-frycz/matury/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E013C9C7-5A26-AD48-8CE9-E0D74127319C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846DEEF2-C7DF-7A48-961A-1399E4066EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25360" yWindow="500" windowWidth="25840" windowHeight="22900" xr2:uid="{66741AC7-6B90-8646-B2FD-55FF52B4B3AC}"/>
+    <workbookView xWindow="22460" yWindow="500" windowWidth="28740" windowHeight="28300" xr2:uid="{66741AC7-6B90-8646-B2FD-55FF52B4B3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="statek_1" localSheetId="0">Sheet1!$A$1:$F$203</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="51">
   <si>
     <t>data</t>
   </si>
@@ -133,11 +133,89 @@
   <si>
     <t>masa załadunków</t>
   </si>
+  <si>
+    <t>zad6.2</t>
+  </si>
+  <si>
+    <t>_pełne dni na morzu</t>
+  </si>
+  <si>
+    <t>rejsy &gt; 20 dni:</t>
+  </si>
+  <si>
+    <t>_ile ton T1 obecnie</t>
+  </si>
+  <si>
+    <t>_ile ton T2 obecnie</t>
+  </si>
+  <si>
+    <t>_ile ton T3 obecnie</t>
+  </si>
+  <si>
+    <t>_ile ton T4 obecnie</t>
+  </si>
+  <si>
+    <t>_ile ton T5 obecnie</t>
+  </si>
+  <si>
+    <t>zad6.3</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>T4 24</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>T2 48</t>
+  </si>
+  <si>
+    <t>T1 3</t>
+  </si>
+  <si>
+    <t>T5 125</t>
+  </si>
+  <si>
+    <t>zad6.4</t>
+  </si>
+  <si>
+    <t>_talary</t>
+  </si>
+  <si>
+    <t>talary na koniec</t>
+  </si>
+  <si>
+    <t>najwiecej talarów</t>
+  </si>
+  <si>
+    <t>CTRL+F i widać, że był to dzień:</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>min talarów</t>
+  </si>
+  <si>
+    <t>500k - min talarów</t>
+  </si>
+  <si>
+    <t>_czy tego dnia wypłynął</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -147,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +235,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,10 +281,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,6 +316,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320107</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>107200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327667</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>110080</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F524CDC-0D9E-E347-B134-E0B9ACBC1986}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1378440" y="45014400"/>
+            <a:ext cx="7560" cy="2880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F524CDC-0D9E-E347-B134-E0B9ACBC1986}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1369849" y="45005760"/>
+              <a:ext cx="24398" cy="20520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-11-22T12:13:06.187"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="807">21 8 24575,'0'0'0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,23 +717,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F77C0-1014-7247-BC59-F0AED6D8A65C}">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:N228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,9 +759,33 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>42370</v>
       </c>
       <c r="B2" t="s">
@@ -550,9 +803,40 @@
       <c r="F2">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF($C2="T1", IF($D2="Z", $E2, -$E2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF($C2="T2", IF($D2="Z", $E2, -$E2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF($C2="T3", IF($D2="Z", $E2, -$E2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>IF($C2="T4", IF($D2="Z", $E2, -$E2), 0)</f>
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <f>IF($C2="T5", IF($D2="Z", $E2, -$E2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <f>500000-$E2*$F2</f>
+        <v>499760</v>
+      </c>
+      <c r="N2" t="b">
+        <f>IF($B2&lt;&gt;$B3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>42370</v>
       </c>
       <c r="B3" t="s">
@@ -570,9 +854,41 @@
       <c r="F3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="G3">
+        <f>A3-A2-1</f>
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <f>IF($C3="T1", IF($D3="Z", H2+$E3, H2-$E3), H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IF($C3="T2", IF($D3="Z", I2+$E3, I2-$E3), I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IF($C3="T3", IF($D3="Z", J2+$E3, J2-$E3), J2)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IF($C3="T4", IF($D3="Z", K2+$E3, K2-$E3), K2)</f>
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <f>IF($C3="T5", IF($D3="Z", L2+$E3, L2-$E3), L2)</f>
+        <v>32</v>
+      </c>
+      <c r="M3" s="10">
+        <f>IF($D3="Z", $M2-$E3*$F3, $M2+$E3*$F3)</f>
+        <v>498160</v>
+      </c>
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N66" si="0">IF($B3&lt;&gt;$B4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>42370</v>
       </c>
       <c r="B4" t="s">
@@ -590,9 +906,41 @@
       <c r="F4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="1">A4-A3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="2">IF(C4="T1", IF(D4="Z", H3+E4, H3-E4), H3)</f>
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="3">IF($C4="T2", IF($D4="Z", I3+$E4, I3-$E4), I3)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="4">IF($C4="T3", IF($D4="Z", J3+$E4, J3-$E4), J3)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K67" si="5">IF($C4="T4", IF($D4="Z", K3+$E4, K3-$E4), K3)</f>
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="6">IF($C4="T5", IF($D4="Z", L3+$E4, L3-$E4), L3)</f>
+        <v>32</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M67" si="7">IF($D4="Z", $M3-$E4*$F4, $M3+$E4*$F4)</f>
+        <v>497780</v>
+      </c>
+      <c r="N4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>42370</v>
       </c>
       <c r="B5" t="s">
@@ -610,9 +958,41 @@
       <c r="F5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="7"/>
+        <v>496790</v>
+      </c>
+      <c r="N5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>42370</v>
       </c>
       <c r="B6" t="s">
@@ -630,9 +1010,41 @@
       <c r="F6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="7"/>
+        <v>495715</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>42385</v>
       </c>
       <c r="B7" t="s">
@@ -650,9 +1062,41 @@
       <c r="F7">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="7"/>
+        <v>497571</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>42385</v>
       </c>
       <c r="B8" t="s">
@@ -670,9 +1114,41 @@
       <c r="F8">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="7"/>
+        <v>497207</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>42393</v>
       </c>
       <c r="B9" t="s">
@@ -690,9 +1166,41 @@
       <c r="F9">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="7"/>
+        <v>495183</v>
+      </c>
+      <c r="N9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>42393</v>
       </c>
       <c r="B10" t="s">
@@ -710,29 +1218,93 @@
       <c r="F10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="7"/>
+        <v>495155</v>
+      </c>
+      <c r="N10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>42393</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
         <v>21</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="7"/>
+        <v>493601</v>
+      </c>
+      <c r="N11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>42419</v>
       </c>
       <c r="B12" t="s">
@@ -750,9 +1322,41 @@
       <c r="F12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="7"/>
+        <v>494977</v>
+      </c>
+      <c r="N12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>42419</v>
       </c>
       <c r="B13" t="s">
@@ -770,9 +1374,41 @@
       <c r="F13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="7"/>
+        <v>495471</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>42419</v>
       </c>
       <c r="B14" t="s">
@@ -790,9 +1426,41 @@
       <c r="F14">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="7"/>
+        <v>494940</v>
+      </c>
+      <c r="N14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>42419</v>
       </c>
       <c r="B15" t="s">
@@ -810,9 +1478,41 @@
       <c r="F15">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="7"/>
+        <v>494644</v>
+      </c>
+      <c r="N15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>42440</v>
       </c>
       <c r="B16" t="s">
@@ -830,9 +1530,41 @@
       <c r="F16">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="7"/>
+        <v>497694</v>
+      </c>
+      <c r="N16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>42440</v>
       </c>
       <c r="B17" t="s">
@@ -850,9 +1582,41 @@
       <c r="F17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="7"/>
+        <v>497054</v>
+      </c>
+      <c r="N17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>42440</v>
       </c>
       <c r="B18" t="s">
@@ -870,9 +1634,41 @@
       <c r="F18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="7"/>
+        <v>496998</v>
+      </c>
+      <c r="N18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>42440</v>
       </c>
       <c r="B19" t="s">
@@ -890,9 +1686,41 @@
       <c r="F19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="7"/>
+        <v>496758</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>42464</v>
       </c>
       <c r="B20" t="s">
@@ -910,9 +1738,41 @@
       <c r="F20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="7"/>
+        <v>496842</v>
+      </c>
+      <c r="N20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>42464</v>
       </c>
       <c r="B21" t="s">
@@ -930,9 +1790,41 @@
       <c r="F21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="7"/>
+        <v>496367</v>
+      </c>
+      <c r="N21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>42464</v>
       </c>
       <c r="B22" t="s">
@@ -950,9 +1842,41 @@
       <c r="F22">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="7"/>
+        <v>495113</v>
+      </c>
+      <c r="N22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>42482</v>
       </c>
       <c r="B23" t="s">
@@ -970,9 +1894,41 @@
       <c r="F23">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="7"/>
+        <v>496373</v>
+      </c>
+      <c r="N23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>42482</v>
       </c>
       <c r="B24" t="s">
@@ -990,9 +1946,41 @@
       <c r="F24">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="7"/>
+        <v>496043</v>
+      </c>
+      <c r="N24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>42482</v>
       </c>
       <c r="B25" t="s">
@@ -1010,9 +1998,41 @@
       <c r="F25">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="7"/>
+        <v>494608</v>
+      </c>
+      <c r="N25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>42504</v>
       </c>
       <c r="B26" t="s">
@@ -1030,9 +2050,41 @@
       <c r="F26">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="7"/>
+        <v>498332</v>
+      </c>
+      <c r="N26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>42504</v>
       </c>
       <c r="B27" t="s">
@@ -1050,9 +2102,41 @@
       <c r="F27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="7"/>
+        <v>498102</v>
+      </c>
+      <c r="N27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>42529</v>
       </c>
       <c r="B28" t="s">
@@ -1070,9 +2154,41 @@
       <c r="F28">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="7"/>
+        <v>498254</v>
+      </c>
+      <c r="N28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>42529</v>
       </c>
       <c r="B29" t="s">
@@ -1090,9 +2206,41 @@
       <c r="F29">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="7"/>
+        <v>495734</v>
+      </c>
+      <c r="N29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>42529</v>
       </c>
       <c r="B30" t="s">
@@ -1110,9 +2258,41 @@
       <c r="F30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="7"/>
+        <v>495510</v>
+      </c>
+      <c r="N30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>42529</v>
       </c>
       <c r="B31" t="s">
@@ -1130,9 +2310,41 @@
       <c r="F31">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="7"/>
+        <v>495149</v>
+      </c>
+      <c r="N31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>42542</v>
       </c>
       <c r="B32" t="s">
@@ -1150,9 +2362,41 @@
       <c r="F32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="7"/>
+        <v>497165</v>
+      </c>
+      <c r="N32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>42542</v>
       </c>
       <c r="B33" t="s">
@@ -1170,9 +2414,41 @@
       <c r="F33">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="7"/>
+        <v>500945</v>
+      </c>
+      <c r="N33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>42542</v>
       </c>
       <c r="B34" t="s">
@@ -1190,9 +2466,41 @@
       <c r="F34">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="7"/>
+        <v>499097</v>
+      </c>
+      <c r="N34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>42542</v>
       </c>
       <c r="B35" t="s">
@@ -1210,9 +2518,41 @@
       <c r="F35">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="7"/>
+        <v>498239</v>
+      </c>
+      <c r="N35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>42542</v>
       </c>
       <c r="B36" t="s">
@@ -1230,9 +2570,41 @@
       <c r="F36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="7"/>
+        <v>498158</v>
+      </c>
+      <c r="N36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>42559</v>
       </c>
       <c r="B37" t="s">
@@ -1250,9 +2622,41 @@
       <c r="F37">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="7"/>
+        <v>498274</v>
+      </c>
+      <c r="N37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>42559</v>
       </c>
       <c r="B38" t="s">
@@ -1270,9 +2674,41 @@
       <c r="F38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="7"/>
+        <v>498718</v>
+      </c>
+      <c r="N38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>42559</v>
       </c>
       <c r="B39" t="s">
@@ -1290,9 +2726,41 @@
       <c r="F39">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="7"/>
+        <v>497248</v>
+      </c>
+      <c r="N39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>42559</v>
       </c>
       <c r="B40" t="s">
@@ -1310,9 +2778,41 @@
       <c r="F40">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="7"/>
+        <v>495136</v>
+      </c>
+      <c r="N40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>42574</v>
       </c>
       <c r="B41" t="s">
@@ -1330,9 +2830,41 @@
       <c r="F41">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="7"/>
+        <v>498080</v>
+      </c>
+      <c r="N41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>42574</v>
       </c>
       <c r="B42" t="s">
@@ -1350,9 +2882,41 @@
       <c r="F42">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="7"/>
+        <v>496016</v>
+      </c>
+      <c r="N42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>42593</v>
       </c>
       <c r="B43" t="s">
@@ -1370,9 +2934,41 @@
       <c r="F43">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="7"/>
+        <v>507476</v>
+      </c>
+      <c r="N43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>42593</v>
       </c>
       <c r="B44" t="s">
@@ -1390,9 +2986,41 @@
       <c r="F44">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="7"/>
+        <v>507260</v>
+      </c>
+      <c r="N44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>42593</v>
       </c>
       <c r="B45" t="s">
@@ -1410,9 +3038,41 @@
       <c r="F45">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="7"/>
+        <v>504920</v>
+      </c>
+      <c r="N45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>42619</v>
       </c>
       <c r="B46" t="s">
@@ -1430,9 +3090,41 @@
       <c r="F46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="7"/>
+        <v>504591</v>
+      </c>
+      <c r="N46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>42619</v>
       </c>
       <c r="B47" t="s">
@@ -1450,9 +3142,41 @@
       <c r="F47">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="7"/>
+        <v>504843</v>
+      </c>
+      <c r="N47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>42619</v>
       </c>
       <c r="B48" t="s">
@@ -1470,9 +3194,41 @@
       <c r="F48">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="7"/>
+        <v>504691</v>
+      </c>
+      <c r="N48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>42619</v>
       </c>
       <c r="B49" t="s">
@@ -1490,9 +3246,41 @@
       <c r="F49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" si="7"/>
+        <v>504625</v>
+      </c>
+      <c r="N49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>42619</v>
       </c>
       <c r="B50" t="s">
@@ -1510,9 +3298,41 @@
       <c r="F50">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="10">
+        <f t="shared" si="7"/>
+        <v>502206</v>
+      </c>
+      <c r="N50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>42640</v>
       </c>
       <c r="B51" t="s">
@@ -1530,9 +3350,41 @@
       <c r="F51">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M51" s="10">
+        <f t="shared" si="7"/>
+        <v>500446</v>
+      </c>
+      <c r="N51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>42640</v>
       </c>
       <c r="B52" t="s">
@@ -1550,9 +3402,41 @@
       <c r="F52">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M52" s="10">
+        <f t="shared" si="7"/>
+        <v>500986</v>
+      </c>
+      <c r="N52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>42640</v>
       </c>
       <c r="B53" t="s">
@@ -1570,9 +3454,41 @@
       <c r="F53">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M53" s="10">
+        <f t="shared" si="7"/>
+        <v>500186</v>
+      </c>
+      <c r="N53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>42640</v>
       </c>
       <c r="B54" t="s">
@@ -1590,9 +3506,41 @@
       <c r="F54">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M54" s="10">
+        <f t="shared" si="7"/>
+        <v>499997</v>
+      </c>
+      <c r="N54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>42640</v>
       </c>
       <c r="B55" t="s">
@@ -1610,9 +3558,41 @@
       <c r="F55">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M55" s="10">
+        <f t="shared" si="7"/>
+        <v>499589</v>
+      </c>
+      <c r="N55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>42664</v>
       </c>
       <c r="B56" t="s">
@@ -1630,9 +3610,41 @@
       <c r="F56">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M56" s="10">
+        <f t="shared" si="7"/>
+        <v>499613</v>
+      </c>
+      <c r="N56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>42664</v>
       </c>
       <c r="B57" t="s">
@@ -1650,9 +3662,41 @@
       <c r="F57">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M57" s="10">
+        <f t="shared" si="7"/>
+        <v>499347</v>
+      </c>
+      <c r="N57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>42664</v>
       </c>
       <c r="B58" t="s">
@@ -1670,9 +3714,41 @@
       <c r="F58">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M58" s="10">
+        <f t="shared" si="7"/>
+        <v>498818</v>
+      </c>
+      <c r="N58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>42682</v>
       </c>
       <c r="B59" t="s">
@@ -1690,9 +3766,41 @@
       <c r="F59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="7"/>
+        <v>498730</v>
+      </c>
+      <c r="N59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>42682</v>
       </c>
       <c r="B60" t="s">
@@ -1710,9 +3818,41 @@
       <c r="F60">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M60" s="10">
+        <f t="shared" si="7"/>
+        <v>497608</v>
+      </c>
+      <c r="N60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>42682</v>
       </c>
       <c r="B61" t="s">
@@ -1730,9 +3870,41 @@
       <c r="F61">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="M61" s="10">
+        <f t="shared" si="7"/>
+        <v>496378</v>
+      </c>
+      <c r="N61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>42704</v>
       </c>
       <c r="B62" t="s">
@@ -1750,9 +3922,41 @@
       <c r="F62">
         <v>98</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="M62" s="10">
+        <f t="shared" si="7"/>
+        <v>505884</v>
+      </c>
+      <c r="N62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>42704</v>
       </c>
       <c r="B63" t="s">
@@ -1770,9 +3974,41 @@
       <c r="F63">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="M63" s="10">
+        <f t="shared" si="7"/>
+        <v>506016</v>
+      </c>
+      <c r="N63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>42704</v>
       </c>
       <c r="B64" t="s">
@@ -1790,9 +4026,41 @@
       <c r="F64">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="M64" s="10">
+        <f t="shared" si="7"/>
+        <v>505676</v>
+      </c>
+      <c r="N64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>42704</v>
       </c>
       <c r="B65" t="s">
@@ -1810,9 +4078,41 @@
       <c r="F65">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="M65" s="10">
+        <f t="shared" si="7"/>
+        <v>505584</v>
+      </c>
+      <c r="N65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>42729</v>
       </c>
       <c r="B66" t="s">
@@ -1830,9 +4130,41 @@
       <c r="F66">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="M66" s="10">
+        <f t="shared" si="7"/>
+        <v>508033</v>
+      </c>
+      <c r="N66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>42729</v>
       </c>
       <c r="B67" t="s">
@@ -1850,9 +4182,41 @@
       <c r="F67">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="M67" s="10">
+        <f t="shared" si="7"/>
+        <v>506053</v>
+      </c>
+      <c r="N67" t="b">
+        <f t="shared" ref="N67:N130" si="8">IF($B67&lt;&gt;$B68,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>42729</v>
       </c>
       <c r="B68" t="s">
@@ -1870,9 +4234,41 @@
       <c r="F68">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="G68">
+        <f t="shared" ref="G68:G131" si="9">A68-A67-1</f>
+        <v>-1</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H131" si="10">IF(C68="T1", IF(D68="Z", H67+E68, H67-E68), H67)</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I131" si="11">IF($C68="T2", IF($D68="Z", I67+$E68, I67-$E68), I67)</f>
+        <v>143</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J131" si="12">IF($C68="T3", IF($D68="Z", J67+$E68, J67-$E68), J67)</f>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K131" si="13">IF($C68="T4", IF($D68="Z", K67+$E68, K67-$E68), K67)</f>
+        <v>33</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L131" si="14">IF($C68="T5", IF($D68="Z", L67+$E68, L67-$E68), L67)</f>
+        <v>74</v>
+      </c>
+      <c r="M68" s="10">
+        <f t="shared" ref="M68:M131" si="15">IF($D68="Z", $M67-$E68*$F68, $M67+$E68*$F68)</f>
+        <v>505455</v>
+      </c>
+      <c r="N68" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>42742</v>
       </c>
       <c r="B69" t="s">
@@ -1890,9 +4286,41 @@
       <c r="F69">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="M69" s="10">
+        <f t="shared" si="15"/>
+        <v>504575</v>
+      </c>
+      <c r="N69" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>42742</v>
       </c>
       <c r="B70" t="s">
@@ -1910,9 +4338,41 @@
       <c r="F70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" si="15"/>
+        <v>504197</v>
+      </c>
+      <c r="N70" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>42742</v>
       </c>
       <c r="B71" t="s">
@@ -1930,9 +4390,41 @@
       <c r="F71">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="M71" s="10">
+        <f t="shared" si="15"/>
+        <v>503105</v>
+      </c>
+      <c r="N71" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>42742</v>
       </c>
       <c r="B72" t="s">
@@ -1950,9 +4442,41 @@
       <c r="F72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" si="15"/>
+        <v>502475</v>
+      </c>
+      <c r="N72" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>42742</v>
       </c>
       <c r="B73" t="s">
@@ -1970,9 +4494,41 @@
       <c r="F73">
         <v>44</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="G73">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="14"/>
+        <v>113</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="15"/>
+        <v>500759</v>
+      </c>
+      <c r="N73" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>42759</v>
       </c>
       <c r="B74" t="s">
@@ -1990,9 +4546,41 @@
       <c r="F74">
         <v>59</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="G74">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" si="15"/>
+        <v>507367</v>
+      </c>
+      <c r="N74" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
         <v>42759</v>
       </c>
       <c r="B75" t="s">
@@ -2010,9 +4598,41 @@
       <c r="F75">
         <v>66</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="G75">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" si="15"/>
+        <v>505123</v>
+      </c>
+      <c r="N75" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>42759</v>
       </c>
       <c r="B76" t="s">
@@ -2030,9 +4650,41 @@
       <c r="F76">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" si="15"/>
+        <v>505018</v>
+      </c>
+      <c r="N76" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>42774</v>
       </c>
       <c r="B77" t="s">
@@ -2050,9 +4702,41 @@
       <c r="F77">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="15"/>
+        <v>511826</v>
+      </c>
+      <c r="N77" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>42774</v>
       </c>
       <c r="B78" t="s">
@@ -2070,9 +4754,41 @@
       <c r="F78">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="G78">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="11"/>
+        <v>199</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" si="15"/>
+        <v>511462</v>
+      </c>
+      <c r="N78" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
         <v>42793</v>
       </c>
       <c r="B79" t="s">
@@ -2090,9 +4806,41 @@
       <c r="F79">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="11"/>
+        <v>199</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="10">
+        <f t="shared" si="15"/>
+        <v>511522</v>
+      </c>
+      <c r="N79" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>42793</v>
       </c>
       <c r="B80" t="s">
@@ -2110,9 +4858,41 @@
       <c r="F80">
         <v>36</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="10">
+        <f t="shared" si="15"/>
+        <v>513070</v>
+      </c>
+      <c r="N80" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
         <v>42793</v>
       </c>
       <c r="B81" t="s">
@@ -2130,9 +4910,41 @@
       <c r="F81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="10">
+        <f t="shared" si="15"/>
+        <v>512830</v>
+      </c>
+      <c r="N81" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>42793</v>
       </c>
       <c r="B82" t="s">
@@ -2150,9 +4962,41 @@
       <c r="F82">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="G82">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="10">
+        <f t="shared" si="15"/>
+        <v>512550</v>
+      </c>
+      <c r="N82" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
         <v>42819</v>
       </c>
       <c r="B83" t="s">
@@ -2170,9 +5014,41 @@
       <c r="F83">
         <v>38</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="G83">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="10">
+        <f t="shared" si="15"/>
+        <v>513804</v>
+      </c>
+      <c r="N83" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
         <v>42819</v>
       </c>
       <c r="B84" t="s">
@@ -2190,9 +5066,41 @@
       <c r="F84">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="G84">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="M84" s="10">
+        <f t="shared" si="15"/>
+        <v>512509</v>
+      </c>
+      <c r="N84" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
         <v>42819</v>
       </c>
       <c r="B85" t="s">
@@ -2210,9 +5118,41 @@
       <c r="F85">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="G85">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" si="15"/>
+        <v>511749</v>
+      </c>
+      <c r="N85" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
         <v>42840</v>
       </c>
       <c r="B86" t="s">
@@ -2230,9 +5170,41 @@
       <c r="F86">
         <v>36</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" si="15"/>
+        <v>512505</v>
+      </c>
+      <c r="N86" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
         <v>42840</v>
       </c>
       <c r="B87" t="s">
@@ -2250,9 +5222,41 @@
       <c r="F87">
         <v>97</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" si="15"/>
+        <v>512699</v>
+      </c>
+      <c r="N87" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
         <v>42840</v>
       </c>
       <c r="B88" t="s">
@@ -2270,9 +5274,41 @@
       <c r="F88">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="12"/>
+        <v>111</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="M88" s="10">
+        <f t="shared" si="15"/>
+        <v>512459</v>
+      </c>
+      <c r="N88" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
         <v>42840</v>
       </c>
       <c r="B89" t="s">
@@ -2290,9 +5326,41 @@
       <c r="F89">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="12"/>
+        <v>111</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" si="15"/>
+        <v>512339</v>
+      </c>
+      <c r="N89" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
         <v>42840</v>
       </c>
       <c r="B90" t="s">
@@ -2310,9 +5378,41 @@
       <c r="F90">
         <v>40</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="12"/>
+        <v>111</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="M90" s="10">
+        <f t="shared" si="15"/>
+        <v>512299</v>
+      </c>
+      <c r="N90" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
         <v>42864</v>
       </c>
       <c r="B91" t="s">
@@ -2330,9 +5430,41 @@
       <c r="F91">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="12"/>
+        <v>111</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" si="15"/>
+        <v>513331</v>
+      </c>
+      <c r="N91" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
         <v>42864</v>
       </c>
       <c r="B92" t="s">
@@ -2350,9 +5482,41 @@
       <c r="F92">
         <v>31</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="G92">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="M92" s="10">
+        <f t="shared" si="15"/>
+        <v>516741</v>
+      </c>
+      <c r="N92" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
         <v>42864</v>
       </c>
       <c r="B93" t="s">
@@ -2370,9 +5534,41 @@
       <c r="F93">
         <v>38</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="G93">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="M93" s="10">
+        <f t="shared" si="15"/>
+        <v>515487</v>
+      </c>
+      <c r="N93" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
         <v>42864</v>
       </c>
       <c r="B94" t="s">
@@ -2390,9 +5586,41 @@
       <c r="F94">
         <v>23</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="G94">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="M94" s="10">
+        <f t="shared" si="15"/>
+        <v>515188</v>
+      </c>
+      <c r="N94" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
         <v>42864</v>
       </c>
       <c r="B95" t="s">
@@ -2410,9 +5638,41 @@
       <c r="F95">
         <v>61</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="G95">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="M95" s="10">
+        <f t="shared" si="15"/>
+        <v>512931</v>
+      </c>
+      <c r="N95" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
         <v>42882</v>
       </c>
       <c r="B96" t="s">
@@ -2430,9 +5690,41 @@
       <c r="F96">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="G96">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="M96" s="10">
+        <f t="shared" si="15"/>
+        <v>512943</v>
+      </c>
+      <c r="N96" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
         <v>42882</v>
       </c>
       <c r="B97" t="s">
@@ -2450,9 +5742,41 @@
       <c r="F97">
         <v>59</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="G97">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M97" s="10">
+        <f t="shared" si="15"/>
+        <v>516955</v>
+      </c>
+      <c r="N97" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
         <v>42882</v>
       </c>
       <c r="B98" t="s">
@@ -2470,9 +5794,41 @@
       <c r="F98">
         <v>66</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="G98">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M98" s="10">
+        <f t="shared" si="15"/>
+        <v>514645</v>
+      </c>
+      <c r="N98" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
         <v>42882</v>
       </c>
       <c r="B99" t="s">
@@ -2490,9 +5846,41 @@
       <c r="F99">
         <v>21</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="G99">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M99" s="10">
+        <f t="shared" si="15"/>
+        <v>514120</v>
+      </c>
+      <c r="N99" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
         <v>42882</v>
       </c>
       <c r="B100" t="s">
@@ -2510,9 +5898,41 @@
       <c r="F100">
         <v>25</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="G100">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M100" s="10">
+        <f t="shared" si="15"/>
+        <v>513870</v>
+      </c>
+      <c r="N100" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
         <v>42904</v>
       </c>
       <c r="B101" t="s">
@@ -2530,9 +5950,41 @@
       <c r="F101">
         <v>37</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="G101">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M101" s="10">
+        <f t="shared" si="15"/>
+        <v>515276</v>
+      </c>
+      <c r="N101" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
         <v>42904</v>
       </c>
       <c r="B102" t="s">
@@ -2550,9 +6002,41 @@
       <c r="F102">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="G102">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M102" s="10">
+        <f t="shared" si="15"/>
+        <v>515100</v>
+      </c>
+      <c r="N102" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
         <v>42904</v>
       </c>
       <c r="B103" t="s">
@@ -2570,9 +6054,41 @@
       <c r="F103">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="G103">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M103" s="10">
+        <f t="shared" si="15"/>
+        <v>514600</v>
+      </c>
+      <c r="N103" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
         <v>42904</v>
       </c>
       <c r="B104" t="s">
@@ -2590,9 +6106,41 @@
       <c r="F104">
         <v>39</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="G104">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="M104" s="10">
+        <f t="shared" si="15"/>
+        <v>514288</v>
+      </c>
+      <c r="N104" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
         <v>42904</v>
       </c>
       <c r="B105" t="s">
@@ -2610,9 +6158,41 @@
       <c r="F105">
         <v>62</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="G105">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="M105" s="10">
+        <f t="shared" si="15"/>
+        <v>511498</v>
+      </c>
+      <c r="N105" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
         <v>42929</v>
       </c>
       <c r="B106" t="s">
@@ -2630,9 +6210,41 @@
       <c r="F106">
         <v>100</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="G106">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="M106" s="10">
+        <f t="shared" si="15"/>
+        <v>523098</v>
+      </c>
+      <c r="N106" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
         <v>42929</v>
       </c>
       <c r="B107" t="s">
@@ -2650,9 +6262,41 @@
       <c r="F107">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="G107">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="M107" s="10">
+        <f t="shared" si="15"/>
+        <v>522547</v>
+      </c>
+      <c r="N107" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
         <v>42942</v>
       </c>
       <c r="B108" t="s">
@@ -2670,9 +6314,41 @@
       <c r="F108">
         <v>34</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="G108">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="M108" s="10">
+        <f t="shared" si="15"/>
+        <v>522717</v>
+      </c>
+      <c r="N108" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
         <v>42942</v>
       </c>
       <c r="B109" t="s">
@@ -2690,9 +6366,41 @@
       <c r="F109">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="G109">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="M109" s="10">
+        <f t="shared" si="15"/>
+        <v>522959</v>
+      </c>
+      <c r="N109" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
         <v>42942</v>
       </c>
       <c r="B110" t="s">
@@ -2710,9 +6418,41 @@
       <c r="F110">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="G110">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="M110" s="10">
+        <f t="shared" si="15"/>
+        <v>522145</v>
+      </c>
+      <c r="N110" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
         <v>42942</v>
       </c>
       <c r="B111" t="s">
@@ -2730,9 +6470,41 @@
       <c r="F111">
         <v>70</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="G111">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="M111" s="10">
+        <f t="shared" si="15"/>
+        <v>521445</v>
+      </c>
+      <c r="N111" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
         <v>42942</v>
       </c>
       <c r="B112" t="s">
@@ -2750,9 +6522,41 @@
       <c r="F112">
         <v>44</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="G112">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="M112" s="10">
+        <f t="shared" si="15"/>
+        <v>519597</v>
+      </c>
+      <c r="N112" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
         <v>42959</v>
       </c>
       <c r="B113" t="s">
@@ -2770,9 +6574,41 @@
       <c r="F113">
         <v>94</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="G113">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="M113" s="10">
+        <f t="shared" si="15"/>
+        <v>520631</v>
+      </c>
+      <c r="N113" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
         <v>42959</v>
       </c>
       <c r="B114" t="s">
@@ -2790,9 +6626,41 @@
       <c r="F114">
         <v>59</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="G114">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="M114" s="10">
+        <f t="shared" si="15"/>
+        <v>523463</v>
+      </c>
+      <c r="N114" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
         <v>42959</v>
       </c>
       <c r="B115" t="s">
@@ -2810,9 +6678,41 @@
       <c r="F115">
         <v>21</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="G115">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="M115" s="10">
+        <f t="shared" si="15"/>
+        <v>523043</v>
+      </c>
+      <c r="N115" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
         <v>42959</v>
       </c>
       <c r="B116" t="s">
@@ -2830,9 +6730,41 @@
       <c r="F116">
         <v>25</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="G116">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="M116" s="10">
+        <f t="shared" si="15"/>
+        <v>522393</v>
+      </c>
+      <c r="N116" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
         <v>42974</v>
       </c>
       <c r="B117" t="s">
@@ -2850,9 +6782,41 @@
       <c r="F117">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="G117">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="M117" s="10">
+        <f t="shared" si="15"/>
+        <v>522177</v>
+      </c>
+      <c r="N117" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
         <v>42974</v>
       </c>
       <c r="B118" t="s">
@@ -2870,9 +6834,41 @@
       <c r="F118">
         <v>68</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="G118">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="M118" s="10">
+        <f t="shared" si="15"/>
+        <v>519593</v>
+      </c>
+      <c r="N118" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
         <v>42974</v>
       </c>
       <c r="B119" t="s">
@@ -2890,9 +6886,41 @@
       <c r="F119">
         <v>21</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="G119">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="M119" s="10">
+        <f t="shared" si="15"/>
+        <v>519299</v>
+      </c>
+      <c r="N119" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
         <v>42974</v>
       </c>
       <c r="B120" t="s">
@@ -2910,9 +6938,41 @@
       <c r="F120">
         <v>43</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="G120">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="M120" s="10">
+        <f t="shared" si="15"/>
+        <v>519127</v>
+      </c>
+      <c r="N120" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
         <v>42993</v>
       </c>
       <c r="B121" t="s">
@@ -2930,9 +6990,41 @@
       <c r="F121">
         <v>36</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="G121">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="M121" s="10">
+        <f t="shared" si="15"/>
+        <v>519811</v>
+      </c>
+      <c r="N121" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
         <v>42993</v>
       </c>
       <c r="B122" t="s">
@@ -2950,9 +7042,41 @@
       <c r="F122">
         <v>65</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="G122">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="M122" s="10">
+        <f t="shared" si="15"/>
+        <v>517861</v>
+      </c>
+      <c r="N122" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
         <v>43019</v>
       </c>
       <c r="B123" t="s">
@@ -2970,9 +7094,41 @@
       <c r="F123">
         <v>63</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="G123">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M123" s="10">
+        <f t="shared" si="15"/>
+        <v>518239</v>
+      </c>
+      <c r="N123" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
         <v>43019</v>
       </c>
       <c r="B124" t="s">
@@ -2990,9 +7146,41 @@
       <c r="F124">
         <v>59</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="G124">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="13"/>
+        <v>111</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M124" s="10">
+        <f t="shared" si="15"/>
+        <v>515702</v>
+      </c>
+      <c r="N124" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
         <v>43040</v>
       </c>
       <c r="B125" t="s">
@@ -3010,9 +7198,41 @@
       <c r="F125">
         <v>61</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="G125">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="13"/>
+        <v>111</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="10">
+        <f t="shared" si="15"/>
+        <v>515763</v>
+      </c>
+      <c r="N125" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
         <v>43040</v>
       </c>
       <c r="B126" t="s">
@@ -3030,9 +7250,41 @@
       <c r="F126">
         <v>30</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="G126">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="13"/>
+        <v>111</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="10">
+        <f t="shared" si="15"/>
+        <v>520173</v>
+      </c>
+      <c r="N126" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
         <v>43040</v>
       </c>
       <c r="B127" t="s">
@@ -3050,9 +7302,41 @@
       <c r="F127">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="G127">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="13"/>
+        <v>111</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="10">
+        <f t="shared" si="15"/>
+        <v>520053</v>
+      </c>
+      <c r="N127" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
         <v>43040</v>
       </c>
       <c r="B128" t="s">
@@ -3070,9 +7354,41 @@
       <c r="F128">
         <v>63</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="G128">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="10">
+        <f t="shared" si="15"/>
+        <v>518541</v>
+      </c>
+      <c r="N128" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
         <v>43040</v>
       </c>
       <c r="B129" t="s">
@@ -3090,9 +7406,41 @@
       <c r="F129">
         <v>24</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+      <c r="G129">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="10">
+        <f t="shared" si="15"/>
+        <v>518085</v>
+      </c>
+      <c r="N129" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
         <v>43064</v>
       </c>
       <c r="B130" t="s">
@@ -3110,9 +7458,41 @@
       <c r="F130">
         <v>99</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+      <c r="G130">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M130" s="10">
+        <f t="shared" si="15"/>
+        <v>531351</v>
+      </c>
+      <c r="N130" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
         <v>43064</v>
       </c>
       <c r="B131" t="s">
@@ -3130,9 +7510,41 @@
       <c r="F131">
         <v>38</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+      <c r="G131">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="M131" s="10">
+        <f t="shared" si="15"/>
+        <v>530895</v>
+      </c>
+      <c r="N131" t="b">
+        <f t="shared" ref="N131:N194" si="16">IF($B131&lt;&gt;$B132,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
         <v>43082</v>
       </c>
       <c r="B132" t="s">
@@ -3150,9 +7562,41 @@
       <c r="F132">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+      <c r="G132">
+        <f t="shared" ref="G132:G195" si="17">A132-A131-1</f>
+        <v>17</v>
+      </c>
+      <c r="H132">
+        <f t="shared" ref="H132:H195" si="18">IF(C132="T1", IF(D132="Z", H131+E132, H131-E132), H131)</f>
+        <v>39</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132:I195" si="19">IF($C132="T2", IF($D132="Z", I131+$E132, I131-$E132), I131)</f>
+        <v>108</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:J195" si="20">IF($C132="T3", IF($D132="Z", J131+$E132, J131-$E132), J131)</f>
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ref="K132:K195" si="21">IF($C132="T4", IF($D132="Z", K131+$E132, K131-$E132), K131)</f>
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ref="L132:L195" si="22">IF($C132="T5", IF($D132="Z", L131+$E132, L131-$E132), L131)</f>
+        <v>12</v>
+      </c>
+      <c r="M132" s="10">
+        <f t="shared" ref="M132:M195" si="23">IF($D132="Z", $M131-$E132*$F132, $M131+$E132*$F132)</f>
+        <v>531015</v>
+      </c>
+      <c r="N132" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
         <v>43082</v>
       </c>
       <c r="B133" t="s">
@@ -3170,9 +7614,41 @@
       <c r="F133">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+      <c r="G133">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="18"/>
+        <v>65</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="19"/>
+        <v>108</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="M133" s="10">
+        <f t="shared" si="23"/>
+        <v>530807</v>
+      </c>
+      <c r="N133" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
         <v>43082</v>
       </c>
       <c r="B134" t="s">
@@ -3190,9 +7666,41 @@
       <c r="F134">
         <v>66</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+      <c r="G134">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="18"/>
+        <v>65</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="19"/>
+        <v>108</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="M134" s="10">
+        <f t="shared" si="23"/>
+        <v>528299</v>
+      </c>
+      <c r="N134" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
         <v>43104</v>
       </c>
       <c r="B135" t="s">
@@ -3210,9 +7718,41 @@
       <c r="F135">
         <v>98</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+      <c r="G135">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="18"/>
+        <v>65</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="19"/>
+        <v>108</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="M135" s="10">
+        <f t="shared" si="23"/>
+        <v>532023</v>
+      </c>
+      <c r="N135" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
         <v>43104</v>
       </c>
       <c r="B136" t="s">
@@ -3230,9 +7770,41 @@
       <c r="F136">
         <v>37</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+      <c r="G136">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="18"/>
+        <v>65</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="M136" s="10">
+        <f t="shared" si="23"/>
+        <v>533651</v>
+      </c>
+      <c r="N136" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
         <v>43104</v>
       </c>
       <c r="B137" t="s">
@@ -3250,9 +7822,41 @@
       <c r="F137">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+      <c r="G137">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="M137" s="10">
+        <f t="shared" si="23"/>
+        <v>533483</v>
+      </c>
+      <c r="N137" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
         <v>43104</v>
       </c>
       <c r="B138" t="s">
@@ -3270,9 +7874,41 @@
       <c r="F138">
         <v>39</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+      <c r="G138">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="M138" s="10">
+        <f t="shared" si="23"/>
+        <v>533093</v>
+      </c>
+      <c r="N138" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
         <v>43129</v>
       </c>
       <c r="B139" t="s">
@@ -3290,9 +7926,41 @@
       <c r="F139">
         <v>38</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="G139">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="M139" s="10">
+        <f t="shared" si="23"/>
+        <v>533663</v>
+      </c>
+      <c r="N139" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
         <v>43129</v>
       </c>
       <c r="B140" t="s">
@@ -3310,9 +7978,41 @@
       <c r="F140">
         <v>63</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+      <c r="G140">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M140" s="10">
+        <f t="shared" si="23"/>
+        <v>535049</v>
+      </c>
+      <c r="N140" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
         <v>43129</v>
       </c>
       <c r="B141" t="s">
@@ -3330,9 +8030,41 @@
       <c r="F141">
         <v>60</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+      <c r="G141">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M141" s="10">
+        <f t="shared" si="23"/>
+        <v>534509</v>
+      </c>
+      <c r="N141" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
         <v>43129</v>
       </c>
       <c r="B142" t="s">
@@ -3350,9 +8082,41 @@
       <c r="F142">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+      <c r="G142">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M142" s="10">
+        <f t="shared" si="23"/>
+        <v>534395</v>
+      </c>
+      <c r="N142" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
         <v>43129</v>
       </c>
       <c r="B143" t="s">
@@ -3370,9 +8134,41 @@
       <c r="F143">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+      <c r="G143">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M143" s="10">
+        <f t="shared" si="23"/>
+        <v>534363</v>
+      </c>
+      <c r="N143" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
         <v>43130</v>
       </c>
       <c r="B144" t="s">
@@ -3390,9 +8186,41 @@
       <c r="F144">
         <v>25</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+      <c r="G144">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M144" s="10">
+        <f t="shared" si="23"/>
+        <v>534513</v>
+      </c>
+      <c r="N144" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
         <v>43130</v>
       </c>
       <c r="B145" t="s">
@@ -3410,9 +8238,41 @@
       <c r="F145">
         <v>79</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+      <c r="G145">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M145" s="10">
+        <f t="shared" si="23"/>
+        <v>530721</v>
+      </c>
+      <c r="N145" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
         <v>43147</v>
       </c>
       <c r="B146" t="s">
@@ -3430,9 +8290,41 @@
       <c r="F146">
         <v>42</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+      <c r="G146">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="22"/>
+        <v>34</v>
+      </c>
+      <c r="M146" s="10">
+        <f t="shared" si="23"/>
+        <v>529293</v>
+      </c>
+      <c r="N146" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
         <v>43147</v>
       </c>
       <c r="B147" t="s">
@@ -3450,9 +8342,41 @@
       <c r="F147">
         <v>35</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+      <c r="G147">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="22"/>
+        <v>34</v>
+      </c>
+      <c r="M147" s="10">
+        <f t="shared" si="23"/>
+        <v>531008</v>
+      </c>
+      <c r="N147" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
         <v>43147</v>
       </c>
       <c r="B148" t="s">
@@ -3470,9 +8394,41 @@
       <c r="F148">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+      <c r="G148">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="22"/>
+        <v>34</v>
+      </c>
+      <c r="M148" s="10">
+        <f t="shared" si="23"/>
+        <v>530928</v>
+      </c>
+      <c r="N148" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
         <v>43147</v>
       </c>
       <c r="B149" t="s">
@@ -3490,9 +8446,41 @@
       <c r="F149">
         <v>21</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+      <c r="G149">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="22"/>
+        <v>34</v>
+      </c>
+      <c r="M149" s="10">
+        <f t="shared" si="23"/>
+        <v>529941</v>
+      </c>
+      <c r="N149" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
         <v>43147</v>
       </c>
       <c r="B150" t="s">
@@ -3510,9 +8498,41 @@
       <c r="F150">
         <v>66</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+      <c r="G150">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="21"/>
+        <v>106</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="22"/>
+        <v>34</v>
+      </c>
+      <c r="M150" s="10">
+        <f t="shared" si="23"/>
+        <v>526773</v>
+      </c>
+      <c r="N150" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
         <v>43162</v>
       </c>
       <c r="B151" t="s">
@@ -3530,9 +8550,41 @@
       <c r="F151">
         <v>58</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+      <c r="G151">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="21"/>
+        <v>106</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M151" s="10">
+        <f t="shared" si="23"/>
+        <v>528745</v>
+      </c>
+      <c r="N151" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
         <v>43162</v>
       </c>
       <c r="B152" t="s">
@@ -3550,9 +8602,41 @@
       <c r="F152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+      <c r="G152">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="18"/>
+        <v>105</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="21"/>
+        <v>106</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M152" s="10">
+        <f t="shared" si="23"/>
+        <v>528700</v>
+      </c>
+      <c r="N152" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
         <v>43181</v>
       </c>
       <c r="B153" t="s">
@@ -3570,9 +8654,41 @@
       <c r="F153">
         <v>30</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+      <c r="G153">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="18"/>
+        <v>105</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="21"/>
+        <v>106</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M153" s="10">
+        <f t="shared" si="23"/>
+        <v>530080</v>
+      </c>
+      <c r="N153" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
         <v>43181</v>
       </c>
       <c r="B154" t="s">
@@ -3590,9 +8706,41 @@
       <c r="F154">
         <v>65</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+      <c r="G154">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="18"/>
+        <v>105</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="21"/>
+        <v>155</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M154" s="10">
+        <f t="shared" si="23"/>
+        <v>526895</v>
+      </c>
+      <c r="N154" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
         <v>43181</v>
       </c>
       <c r="B155" t="s">
@@ -3610,9 +8758,41 @@
       <c r="F155">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+      <c r="G155">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="18"/>
+        <v>121</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="21"/>
+        <v>155</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M155" s="10">
+        <f t="shared" si="23"/>
+        <v>526767</v>
+      </c>
+      <c r="N155" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
         <v>43207</v>
       </c>
       <c r="B156" t="s">
@@ -3630,9 +8810,41 @@
       <c r="F156">
         <v>37</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+      <c r="G156">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="18"/>
+        <v>121</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="21"/>
+        <v>155</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M156" s="10">
+        <f t="shared" si="23"/>
+        <v>526582</v>
+      </c>
+      <c r="N156" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
         <v>43207</v>
       </c>
       <c r="B157" t="s">
@@ -3650,9 +8862,41 @@
       <c r="F157">
         <v>32</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+      <c r="G157">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="18"/>
+        <v>121</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="21"/>
+        <v>155</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M157" s="10">
+        <f t="shared" si="23"/>
+        <v>526614</v>
+      </c>
+      <c r="N157" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
         <v>43207</v>
       </c>
       <c r="B158" t="s">
@@ -3670,9 +8914,41 @@
       <c r="F158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+      <c r="G158">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="18"/>
+        <v>155</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="21"/>
+        <v>155</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M158" s="10">
+        <f t="shared" si="23"/>
+        <v>526376</v>
+      </c>
+      <c r="N158" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
         <v>43207</v>
       </c>
       <c r="B159" t="s">
@@ -3690,9 +8966,41 @@
       <c r="F159">
         <v>59</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="G159">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="18"/>
+        <v>155</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="21"/>
+        <v>184</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M159" s="10">
+        <f t="shared" si="23"/>
+        <v>524665</v>
+      </c>
+      <c r="N159" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
         <v>43228</v>
       </c>
       <c r="B160" t="s">
@@ -3710,9 +9018,41 @@
       <c r="F160">
         <v>24</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+      <c r="G160">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="18"/>
+        <v>155</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="21"/>
+        <v>184</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M160" s="10">
+        <f t="shared" si="23"/>
+        <v>523849</v>
+      </c>
+      <c r="N160" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
         <v>43228</v>
       </c>
       <c r="B161" t="s">
@@ -3730,9 +9070,41 @@
       <c r="F161">
         <v>20</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+      <c r="G161">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="18"/>
+        <v>155</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="21"/>
+        <v>184</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M161" s="10">
+        <f t="shared" si="23"/>
+        <v>523309</v>
+      </c>
+      <c r="N161" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
         <v>43228</v>
       </c>
       <c r="B162" t="s">
@@ -3750,9 +9122,41 @@
       <c r="F162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+      <c r="G162">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="21"/>
+        <v>184</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M162" s="10">
+        <f t="shared" si="23"/>
+        <v>522989</v>
+      </c>
+      <c r="N162" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
         <v>43252</v>
       </c>
       <c r="B163" t="s">
@@ -3770,9 +9174,41 @@
       <c r="F163">
         <v>99</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+      <c r="G163">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M163" s="10">
+        <f t="shared" si="23"/>
+        <v>541205</v>
+      </c>
+      <c r="N163" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
         <v>43252</v>
       </c>
       <c r="B164" t="s">
@@ -3790,9 +9226,41 @@
       <c r="F164">
         <v>38</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+      <c r="G164">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="22"/>
+        <v>53</v>
+      </c>
+      <c r="M164" s="10">
+        <f t="shared" si="23"/>
+        <v>539381</v>
+      </c>
+      <c r="N164" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
         <v>43252</v>
       </c>
       <c r="B165" t="s">
@@ -3810,9 +9278,41 @@
       <c r="F165">
         <v>23</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+      <c r="G165">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="22"/>
+        <v>53</v>
+      </c>
+      <c r="M165" s="10">
+        <f t="shared" si="23"/>
+        <v>538898</v>
+      </c>
+      <c r="N165" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
         <v>43270</v>
       </c>
       <c r="B166" t="s">
@@ -3830,9 +9330,41 @@
       <c r="F166">
         <v>66</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+      <c r="G166">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="22"/>
+        <v>53</v>
+      </c>
+      <c r="M166" s="10">
+        <f t="shared" si="23"/>
+        <v>535796</v>
+      </c>
+      <c r="N166" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
         <v>43270</v>
       </c>
       <c r="B167" t="s">
@@ -3850,9 +9382,41 @@
       <c r="F167">
         <v>25</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+      <c r="G167">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="19"/>
+        <v>61</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="22"/>
+        <v>53</v>
+      </c>
+      <c r="M167" s="10">
+        <f t="shared" si="23"/>
+        <v>535646</v>
+      </c>
+      <c r="N167" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
         <v>43270</v>
       </c>
       <c r="B168" t="s">
@@ -3870,9 +9434,41 @@
       <c r="F168">
         <v>41</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+      <c r="G168">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="19"/>
+        <v>61</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="M168" s="10">
+        <f t="shared" si="23"/>
+        <v>533719</v>
+      </c>
+      <c r="N168" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
         <v>43292</v>
       </c>
       <c r="B169" t="s">
@@ -3890,9 +9486,41 @@
       <c r="F169">
         <v>12</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+      <c r="G169">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="19"/>
+        <v>61</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="M169" s="10">
+        <f t="shared" si="23"/>
+        <v>536023</v>
+      </c>
+      <c r="N169" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
         <v>43292</v>
       </c>
       <c r="B170" t="s">
@@ -3910,9 +9538,41 @@
       <c r="F170">
         <v>37</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+      <c r="G170">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="M170" s="10">
+        <f t="shared" si="23"/>
+        <v>537799</v>
+      </c>
+      <c r="N170" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
         <v>43292</v>
       </c>
       <c r="B171" t="s">
@@ -3930,9 +9590,41 @@
       <c r="F171">
         <v>62</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+      <c r="G171">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="M171" s="10">
+        <f t="shared" si="23"/>
+        <v>536683</v>
+      </c>
+      <c r="N171" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
         <v>43292</v>
       </c>
       <c r="B172" t="s">
@@ -3950,29 +9642,93 @@
       <c r="F172">
         <v>39</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+      <c r="G172">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="22"/>
+        <v>125</v>
+      </c>
+      <c r="M172" s="10">
+        <f t="shared" si="23"/>
+        <v>535708</v>
+      </c>
+      <c r="N172" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" s="7">
         <v>43292</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D173" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173">
+      <c r="D173" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="5">
         <v>2</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+      <c r="G173" s="5">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H173" s="8">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I173" s="5">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="J173" s="5">
+        <f t="shared" si="20"/>
+        <v>29</v>
+      </c>
+      <c r="K173" s="5">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L173" s="9">
+        <f t="shared" si="22"/>
+        <v>125</v>
+      </c>
+      <c r="M173" s="10">
+        <f t="shared" si="23"/>
+        <v>535668</v>
+      </c>
+      <c r="N173" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
         <v>43317</v>
       </c>
       <c r="B174" t="s">
@@ -3990,9 +9746,41 @@
       <c r="F174">
         <v>38</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+      <c r="G174">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="20"/>
+        <v>29</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="22"/>
+        <v>125</v>
+      </c>
+      <c r="M174" s="10">
+        <f t="shared" si="23"/>
+        <v>536162</v>
+      </c>
+      <c r="N174" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
         <v>43317</v>
       </c>
       <c r="B175" t="s">
@@ -4010,9 +9798,41 @@
       <c r="F175">
         <v>63</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+      <c r="G175">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="20"/>
+        <v>29</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M175" s="10">
+        <f t="shared" si="23"/>
+        <v>543785</v>
+      </c>
+      <c r="N175" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
         <v>43317</v>
       </c>
       <c r="B176" t="s">
@@ -4030,9 +9850,41 @@
       <c r="F176">
         <v>19</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+      <c r="G176">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M176" s="10">
+        <f t="shared" si="23"/>
+        <v>543215</v>
+      </c>
+      <c r="N176" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
         <v>43317</v>
       </c>
       <c r="B177" t="s">
@@ -4050,9 +9902,41 @@
       <c r="F177">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+      <c r="G177">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M177" s="10">
+        <f t="shared" si="23"/>
+        <v>542847</v>
+      </c>
+      <c r="N177" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
         <v>43330</v>
       </c>
       <c r="B178" t="s">
@@ -4070,9 +9954,41 @@
       <c r="F178">
         <v>11</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+      <c r="G178">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M178" s="10">
+        <f t="shared" si="23"/>
+        <v>543386</v>
+      </c>
+      <c r="N178" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
         <v>43330</v>
       </c>
       <c r="B179" t="s">
@@ -4090,9 +10006,41 @@
       <c r="F179">
         <v>90</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+      <c r="G179">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M179" s="10">
+        <f t="shared" si="23"/>
+        <v>548876</v>
+      </c>
+      <c r="N179" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
         <v>43330</v>
       </c>
       <c r="B180" t="s">
@@ -4110,9 +10058,41 @@
       <c r="F180">
         <v>22</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+      <c r="G180">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M180" s="10">
+        <f t="shared" si="23"/>
+        <v>548458</v>
+      </c>
+      <c r="N180" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
         <v>43330</v>
       </c>
       <c r="B181" t="s">
@@ -4130,9 +10110,41 @@
       <c r="F181">
         <v>44</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+      <c r="G181">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="M181" s="10">
+        <f t="shared" si="23"/>
+        <v>547490</v>
+      </c>
+      <c r="N181" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
         <v>43347</v>
       </c>
       <c r="B182" t="s">
@@ -4150,9 +10162,41 @@
       <c r="F182">
         <v>25</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+      <c r="G182">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="M182" s="10">
+        <f t="shared" si="23"/>
+        <v>547265</v>
+      </c>
+      <c r="N182" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
         <v>43347</v>
       </c>
       <c r="B183" t="s">
@@ -4170,9 +10214,41 @@
       <c r="F183">
         <v>94</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+      <c r="G183">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="M183" s="10">
+        <f t="shared" si="23"/>
+        <v>547641</v>
+      </c>
+      <c r="N183" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
         <v>43347</v>
       </c>
       <c r="B184" t="s">
@@ -4190,9 +10266,41 @@
       <c r="F184">
         <v>21</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+      <c r="G184">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="20"/>
+        <v>86</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="M184" s="10">
+        <f t="shared" si="23"/>
+        <v>547473</v>
+      </c>
+      <c r="N184" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
         <v>43347</v>
       </c>
       <c r="B185" t="s">
@@ -4210,9 +10318,41 @@
       <c r="F185">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+      <c r="G185">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="20"/>
+        <v>86</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="M185" s="10">
+        <f t="shared" si="23"/>
+        <v>547097</v>
+      </c>
+      <c r="N185" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
         <v>43362</v>
       </c>
       <c r="B186" t="s">
@@ -4230,9 +10370,41 @@
       <c r="F186">
         <v>29</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+      <c r="G186">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="M186" s="10">
+        <f t="shared" si="23"/>
+        <v>549475</v>
+      </c>
+      <c r="N186" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
         <v>43362</v>
       </c>
       <c r="B187" t="s">
@@ -4250,9 +10422,41 @@
       <c r="F187">
         <v>58</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+      <c r="G187">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M187" s="10">
+        <f t="shared" si="23"/>
+        <v>550983</v>
+      </c>
+      <c r="N187" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
         <v>43362</v>
       </c>
       <c r="B188" t="s">
@@ -4270,9 +10474,41 @@
       <c r="F188">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+      <c r="G188">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M188" s="10">
+        <f t="shared" si="23"/>
+        <v>550767</v>
+      </c>
+      <c r="N188" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
         <v>43362</v>
       </c>
       <c r="B189" t="s">
@@ -4290,9 +10526,41 @@
       <c r="F189">
         <v>26</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+      <c r="G189">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M189" s="10">
+        <f t="shared" si="23"/>
+        <v>549831</v>
+      </c>
+      <c r="N189" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
         <v>43362</v>
       </c>
       <c r="B190" t="s">
@@ -4310,9 +10578,41 @@
       <c r="F190">
         <v>68</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+      <c r="G190">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M190" s="10">
+        <f t="shared" si="23"/>
+        <v>549423</v>
+      </c>
+      <c r="N190" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
         <v>43381</v>
       </c>
       <c r="B191" t="s">
@@ -4330,9 +10630,41 @@
       <c r="F191">
         <v>36</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+      <c r="G191">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M191" s="10">
+        <f t="shared" si="23"/>
+        <v>551043</v>
+      </c>
+      <c r="N191" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
         <v>43381</v>
       </c>
       <c r="B192" t="s">
@@ -4350,29 +10682,93 @@
       <c r="F192">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+      <c r="G192">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="18"/>
+        <v>89</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M192" s="10">
+        <f t="shared" si="23"/>
+        <v>550899</v>
+      </c>
+      <c r="N192" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A193" s="14">
         <v>43381</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D193" t="s">
-        <v>8</v>
-      </c>
-      <c r="E193">
+      <c r="D193" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="15">
         <v>20</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="15">
         <v>41</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+      <c r="G193" s="15">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H193" s="15">
+        <f t="shared" si="18"/>
+        <v>89</v>
+      </c>
+      <c r="I193" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J193" s="15">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="K193" s="15">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="L193" s="15">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="M193" s="11">
+        <f t="shared" si="23"/>
+        <v>550079</v>
+      </c>
+      <c r="N193" s="15" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
         <v>43407</v>
       </c>
       <c r="B194" t="s">
@@ -4390,9 +10786,41 @@
       <c r="F194">
         <v>32</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+      <c r="G194">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="18"/>
+        <v>89</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="M194" s="10">
+        <f>IF($D194="Z", $M193-$E194*$F194, $M193+$E194*$F194)</f>
+        <v>550207</v>
+      </c>
+      <c r="N194" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
         <v>43407</v>
       </c>
       <c r="B195" t="s">
@@ -4410,29 +10838,93 @@
       <c r="F195">
         <v>37</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+      <c r="G195">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="18"/>
+        <v>89</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="22"/>
+        <v>68</v>
+      </c>
+      <c r="M195" s="10">
+        <f t="shared" si="23"/>
+        <v>548431</v>
+      </c>
+      <c r="N195" t="b">
+        <f t="shared" ref="N195:N203" si="24">IF($B195&lt;&gt;$B196,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196" s="17">
         <v>43428</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="16">
         <v>64</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="16">
         <v>61</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+      <c r="G196" s="16">
+        <f t="shared" ref="G196:G203" si="25">A196-A195-1</f>
+        <v>20</v>
+      </c>
+      <c r="H196" s="16">
+        <f t="shared" ref="H196:H203" si="26">IF(C196="T1", IF(D196="Z", H195+E196, H195-E196), H195)</f>
+        <v>89</v>
+      </c>
+      <c r="I196" s="16">
+        <f t="shared" ref="I196:I203" si="27">IF($C196="T2", IF($D196="Z", I195+$E196, I195-$E196), I195)</f>
+        <v>0</v>
+      </c>
+      <c r="J196" s="16">
+        <f t="shared" ref="J196:J203" si="28">IF($C196="T3", IF($D196="Z", J195+$E196, J195-$E196), J195)</f>
+        <v>0</v>
+      </c>
+      <c r="K196" s="16">
+        <f t="shared" ref="K196:K203" si="29">IF($C196="T4", IF($D196="Z", K195+$E196, K195-$E196), K195)</f>
+        <v>6</v>
+      </c>
+      <c r="L196" s="16">
+        <f t="shared" ref="L196:L203" si="30">IF($C196="T5", IF($D196="Z", L195+$E196, L195-$E196), L195)</f>
+        <v>4</v>
+      </c>
+      <c r="M196" s="18">
+        <f t="shared" ref="M196:M203" si="31">IF($D196="Z", $M195-$E196*$F196, $M195+$E196*$F196)</f>
+        <v>552335</v>
+      </c>
+      <c r="N196" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
         <v>43428</v>
       </c>
       <c r="B197" t="s">
@@ -4450,9 +10942,41 @@
       <c r="F197">
         <v>63</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+      <c r="G197">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="26"/>
+        <v>89</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="M197" s="10">
+        <f t="shared" si="31"/>
+        <v>549626</v>
+      </c>
+      <c r="N197" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
         <v>43428</v>
       </c>
       <c r="B198" t="s">
@@ -4470,9 +10994,41 @@
       <c r="F198">
         <v>24</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+      <c r="G198">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="26"/>
+        <v>89</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="M198" s="10">
+        <f t="shared" si="31"/>
+        <v>549050</v>
+      </c>
+      <c r="N198" t="b">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
         <v>43452</v>
       </c>
       <c r="B199" t="s">
@@ -4490,9 +11046,41 @@
       <c r="F199">
         <v>62</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+      <c r="G199">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="26"/>
+        <v>89</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M199" s="10">
+        <f t="shared" si="31"/>
+        <v>549298</v>
+      </c>
+      <c r="N199" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
         <v>43452</v>
       </c>
       <c r="B200" t="s">
@@ -4510,9 +11098,41 @@
       <c r="F200">
         <v>19</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+      <c r="G200">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="26"/>
+        <v>89</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="28"/>
+        <v>35</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M200" s="10">
+        <f t="shared" si="31"/>
+        <v>548633</v>
+      </c>
+      <c r="N200" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
         <v>43452</v>
       </c>
       <c r="B201" t="s">
@@ -4530,9 +11150,41 @@
       <c r="F201">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+      <c r="G201">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="26"/>
+        <v>130</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="28"/>
+        <v>35</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M201" s="10">
+        <f t="shared" si="31"/>
+        <v>548305</v>
+      </c>
+      <c r="N201" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
         <v>43452</v>
       </c>
       <c r="B202" t="s">
@@ -4550,9 +11202,41 @@
       <c r="F202">
         <v>61</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+      <c r="G202">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="26"/>
+        <v>130</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="28"/>
+        <v>35</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="29"/>
+        <v>72</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M202" s="10">
+        <f t="shared" si="31"/>
+        <v>546902</v>
+      </c>
+      <c r="N202" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
         <v>43452</v>
       </c>
       <c r="B203" t="s">
@@ -4570,8 +11254,49 @@
       <c r="F203">
         <v>23</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G203">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="26"/>
+        <v>130</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="27"/>
+        <v>70</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="28"/>
+        <v>35</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="29"/>
+        <v>72</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M203" s="11">
+        <f t="shared" si="31"/>
+        <v>545844</v>
+      </c>
+      <c r="N203" t="b">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>28</v>
+      </c>
+      <c r="G205" s="1">
+        <f>COUNTIF(G2:G203, "&gt;20")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -4582,7 +11307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -4595,7 +11320,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -4608,7 +11333,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -4621,21 +11346,21 @@
         <v>633</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B210" s="2"/>
+      <c r="B210" s="9"/>
       <c r="C210">
         <f>COUNTIFS(C$2:C$203, "=T4", D$2:D$203, "=Z")</f>
         <v>32</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="9">
         <f>SUMIFS(E$2:E$203, C$2:C$203, "T4",D$2:D$203, "=Z")</f>
         <v>905</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -4648,7 +11373,109 @@
         <v>784</v>
       </c>
     </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="9">
+        <f>G205</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" s="12">
+        <f>$M$203</f>
+        <v>545844</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B223" s="12">
+        <f>_xlfn.MAXIFS($M$2:$M$203, $N$2:$N$203, TRUE)</f>
+        <v>550079</v>
+      </c>
+      <c r="C223" t="s">
+        <v>45</v>
+      </c>
+      <c r="F223" s="13">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="10">
+        <f>MIN($M$2:$M$203)</f>
+        <v>493601</v>
+      </c>
+      <c r="B228" s="12">
+        <f>500000 - A228</f>
+        <v>6399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/matury/2020/zad6.xlsx
+++ b/matury/2020/zad6.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bartek/dev/other/informatyka-frycz/matury/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846DEEF2-C7DF-7A48-961A-1399E4066EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87E3ADD-4FE0-0B4A-8E8E-E7A072E5FBBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22460" yWindow="500" windowWidth="28740" windowHeight="28300" xr2:uid="{66741AC7-6B90-8646-B2FD-55FF52B4B3AC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31900" windowHeight="26400" xr2:uid="{66741AC7-6B90-8646-B2FD-55FF52B4B3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="statek_1" localSheetId="0">Sheet1!$A$1:$F$203</definedName>
@@ -225,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +269,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -281,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -301,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F77C0-1014-7247-BC59-F0AED6D8A65C}">
   <dimension ref="A1:N228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11435,6 +11443,10 @@
         <f>$M$203</f>
         <v>545844</v>
       </c>
+      <c r="F222" s="19">
+        <f>_xlfn.XLOOKUP(550079, M2:M203, A2:A203)</f>
+        <v>43381</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="16" t="s">
@@ -11478,4 +11490,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F143F54-8A47-914F-95B3-B59698086A42}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>IF($C2="T1", IF($D2="Z", $E2, -$E2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:K1" si="0">IF($C2="T1", IF($D2="Z", $E2, -$E2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/matury/2020/zad6.xlsx
+++ b/matury/2020/zad6.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bartek/dev/other/informatyka-frycz/matury/2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\dev\other\informatyka-frycz\matury\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87E3ADD-4FE0-0B4A-8E8E-E7A072E5FBBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF0CE95-A56F-435C-812D-F7C54556434A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31900" windowHeight="26400" xr2:uid="{66741AC7-6B90-8646-B2FD-55FF52B4B3AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{66741AC7-6B90-8646-B2FD-55FF52B4B3AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz" sheetId="1" r:id="rId1"/>
+    <sheet name="zad64" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="statek_1" localSheetId="0">Sheet1!$A$1:$F$203</definedName>
+    <definedName name="statek_1" localSheetId="0">Arkusz!$A$1:$F$203</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="15" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="75">
   <si>
     <t>data</t>
   </si>
@@ -209,6 +212,78 @@
   <si>
     <t>_czy tego dnia wypłynął</t>
   </si>
+  <si>
+    <t>odczytane z kolumn pomocniczych</t>
+  </si>
+  <si>
+    <t>zad6.5</t>
+  </si>
+  <si>
+    <t>Etykiety wierszy</t>
+  </si>
+  <si>
+    <t>Suma końcowa</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>sty</t>
+  </si>
+  <si>
+    <t>lut</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>kwi</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>cze</t>
+  </si>
+  <si>
+    <t>lip</t>
+  </si>
+  <si>
+    <t>sie</t>
+  </si>
+  <si>
+    <t>wrz</t>
+  </si>
+  <si>
+    <t>paź</t>
+  </si>
+  <si>
+    <t>lis</t>
+  </si>
+  <si>
+    <t>gru</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Suma z ile ton</t>
+  </si>
+  <si>
+    <t>Etykiety kolumn</t>
+  </si>
+  <si>
+    <t>Wyładunek</t>
+  </si>
+  <si>
+    <t>Załadunek</t>
+  </si>
+  <si>
+    <t>na drugim arkuszu</t>
+  </si>
 </sst>
 </file>
 
@@ -217,10 +292,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,9 +390,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -326,19 +416,1582 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[zad6.xlsx]zad64!Tabela przestawna1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>załadunek</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> i wyładunek towaru T5 w poszczególnych miesiącach</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>zad64!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wyładunek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>zad64!$A$5:$A$38</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>sty</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>lut</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>kwi</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>cze</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>lip</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sie</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>wrz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>lis</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>sty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>lut</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>kwi</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>maj</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>cze</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>lip</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>sie</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>paź</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>lis</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>sty</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>lut</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>kwi</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>cze</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>lip</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>sie</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>wrz</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>paź</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>lis</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>gru</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>zad64!$B$5:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D986-4D6D-9243-E95700C63E92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>zad64!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Załadunek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>zad64!$A$5:$A$38</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>sty</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>lut</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>kwi</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>cze</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>lip</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sie</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>wrz</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>lis</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>sty</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>lut</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>kwi</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>maj</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>cze</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>lip</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>sie</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>paź</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>lis</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>sty</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>lut</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>mar</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>kwi</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>cze</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>lip</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>sie</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>wrz</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>paź</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>lis</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>gru</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>zad64!$C$5:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D986-4D6D-9243-E95700C63E92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2017501728"/>
+        <c:axId val="2017502144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2017501728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>miesiące od stycznia 2016 do</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> grudnia 2018</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017502144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2017502144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>liczba</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> ton</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017501728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="5400000" vert="horz"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>320107</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>107200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>327667</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>110080</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -396,6 +2049,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DB7C6A-F151-478A-B2F6-AD7D54656072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -424,14 +2118,3633 @@
 </inkml:ink>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bartek" refreshedDate="44298.442258101852" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="202" xr:uid="{CBF0539A-BD58-445D-9BE3-3A06F8B35659}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N203" sheet="Arkusz"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="data" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-01-01T00:00:00" maxDate="2018-12-19T00:00:00" count="56">
+        <d v="2016-01-01T00:00:00"/>
+        <d v="2016-01-16T00:00:00"/>
+        <d v="2016-01-24T00:00:00"/>
+        <d v="2016-02-19T00:00:00"/>
+        <d v="2016-03-11T00:00:00"/>
+        <d v="2016-04-04T00:00:00"/>
+        <d v="2016-04-22T00:00:00"/>
+        <d v="2016-05-14T00:00:00"/>
+        <d v="2016-06-08T00:00:00"/>
+        <d v="2016-06-21T00:00:00"/>
+        <d v="2016-07-08T00:00:00"/>
+        <d v="2016-07-23T00:00:00"/>
+        <d v="2016-08-11T00:00:00"/>
+        <d v="2016-09-06T00:00:00"/>
+        <d v="2016-09-27T00:00:00"/>
+        <d v="2016-10-21T00:00:00"/>
+        <d v="2016-11-08T00:00:00"/>
+        <d v="2016-11-30T00:00:00"/>
+        <d v="2016-12-25T00:00:00"/>
+        <d v="2017-01-07T00:00:00"/>
+        <d v="2017-01-24T00:00:00"/>
+        <d v="2017-02-08T00:00:00"/>
+        <d v="2017-02-27T00:00:00"/>
+        <d v="2017-03-25T00:00:00"/>
+        <d v="2017-04-15T00:00:00"/>
+        <d v="2017-05-09T00:00:00"/>
+        <d v="2017-05-27T00:00:00"/>
+        <d v="2017-06-18T00:00:00"/>
+        <d v="2017-07-13T00:00:00"/>
+        <d v="2017-07-26T00:00:00"/>
+        <d v="2017-08-12T00:00:00"/>
+        <d v="2017-08-27T00:00:00"/>
+        <d v="2017-09-15T00:00:00"/>
+        <d v="2017-10-11T00:00:00"/>
+        <d v="2017-11-01T00:00:00"/>
+        <d v="2017-11-25T00:00:00"/>
+        <d v="2017-12-13T00:00:00"/>
+        <d v="2018-01-04T00:00:00"/>
+        <d v="2018-01-29T00:00:00"/>
+        <d v="2018-01-30T00:00:00"/>
+        <d v="2018-02-16T00:00:00"/>
+        <d v="2018-03-03T00:00:00"/>
+        <d v="2018-03-22T00:00:00"/>
+        <d v="2018-04-17T00:00:00"/>
+        <d v="2018-05-08T00:00:00"/>
+        <d v="2018-06-01T00:00:00"/>
+        <d v="2018-06-19T00:00:00"/>
+        <d v="2018-07-11T00:00:00"/>
+        <d v="2018-08-05T00:00:00"/>
+        <d v="2018-08-18T00:00:00"/>
+        <d v="2018-09-04T00:00:00"/>
+        <d v="2018-09-19T00:00:00"/>
+        <d v="2018-10-08T00:00:00"/>
+        <d v="2018-11-03T00:00:00"/>
+        <d v="2018-11-24T00:00:00"/>
+        <d v="2018-12-18T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="14" base="0">
+        <rangePr groupBy="months" startDate="2016-01-01T00:00:00" endDate="2018-12-19T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01.01.2016"/>
+          <s v="sty"/>
+          <s v="lut"/>
+          <s v="mar"/>
+          <s v="kwi"/>
+          <s v="maj"/>
+          <s v="cze"/>
+          <s v="lip"/>
+          <s v="sie"/>
+          <s v="wrz"/>
+          <s v="paź"/>
+          <s v="lis"/>
+          <s v="gru"/>
+          <s v="&gt;19.12.2018"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="port" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="towar" numFmtId="0">
+      <sharedItems count="5">
+        <s v="T4"/>
+        <s v="T5"/>
+        <s v="T1"/>
+        <s v="T2"/>
+        <s v="T3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Z/W" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Z"/>
+        <s v="W"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ile ton" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="192"/>
+    </cacheField>
+    <cacheField name="cena za tone w talarach" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="100"/>
+    </cacheField>
+    <cacheField name="_pełne dni na morzu" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1" maxValue="25"/>
+    </cacheField>
+    <cacheField name="_ile ton T1 obecnie" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="195"/>
+    </cacheField>
+    <cacheField name="_ile ton T2 obecnie" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="199"/>
+    </cacheField>
+    <cacheField name="_ile ton T3 obecnie" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="151"/>
+    </cacheField>
+    <cacheField name="_ile ton T4 obecnie" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="184"/>
+    </cacheField>
+    <cacheField name="_ile ton T5 obecnie" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="195"/>
+    </cacheField>
+    <cacheField name="_talary" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="493601" maxValue="552335"/>
+    </cacheField>
+    <cacheField name="_czy tego dnia wypłynął" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Lata" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2016-01-01T00:00:00" endDate="2018-12-19T00:00:00"/>
+        <groupItems count="5">
+          <s v="&lt;01.01.2016"/>
+          <s v="2016"/>
+          <s v="2017"/>
+          <s v="2018"/>
+          <s v="&gt;19.12.2018"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="202">
+  <r>
+    <x v="0"/>
+    <s v="Algier"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="80"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="499760"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Algier"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="50"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="32"/>
+    <n v="498160"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Algier"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="38"/>
+    <n v="10"/>
+    <n v="-1"/>
+    <n v="38"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="32"/>
+    <n v="497780"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Algier"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="33"/>
+    <n v="30"/>
+    <n v="-1"/>
+    <n v="38"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="32"/>
+    <n v="496790"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Algier"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="25"/>
+    <n v="-1"/>
+    <n v="38"/>
+    <n v="33"/>
+    <n v="43"/>
+    <n v="3"/>
+    <n v="32"/>
+    <n v="495715"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Tunis"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="32"/>
+    <n v="58"/>
+    <n v="14"/>
+    <n v="38"/>
+    <n v="33"/>
+    <n v="43"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="497571"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Tunis"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="26"/>
+    <n v="-1"/>
+    <n v="38"/>
+    <n v="47"/>
+    <n v="43"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="497207"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Benghazi"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="46"/>
+    <n v="7"/>
+    <n v="38"/>
+    <n v="47"/>
+    <n v="43"/>
+    <n v="3"/>
+    <n v="44"/>
+    <n v="495183"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Benghazi"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="28"/>
+    <n v="-1"/>
+    <n v="38"/>
+    <n v="48"/>
+    <n v="43"/>
+    <n v="3"/>
+    <n v="44"/>
+    <n v="495155"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Benghazi"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="21"/>
+    <n v="74"/>
+    <n v="-1"/>
+    <n v="38"/>
+    <n v="48"/>
+    <n v="43"/>
+    <n v="24"/>
+    <n v="44"/>
+    <n v="493601"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Aleksandria"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="43"/>
+    <n v="32"/>
+    <n v="25"/>
+    <n v="38"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="24"/>
+    <n v="44"/>
+    <n v="494977"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Aleksandria"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="38"/>
+    <n v="13"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="24"/>
+    <n v="44"/>
+    <n v="495471"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Aleksandria"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="59"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="44"/>
+    <n v="494940"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Aleksandria"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="37"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="52"/>
+    <n v="494644"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Bejrut"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="61"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="2"/>
+    <n v="497694"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Bejrut"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="20"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="48"/>
+    <n v="32"/>
+    <n v="33"/>
+    <n v="2"/>
+    <n v="497054"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Bejrut"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="7"/>
+    <n v="48"/>
+    <n v="32"/>
+    <n v="33"/>
+    <n v="2"/>
+    <n v="496998"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Bejrut"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="24"/>
+    <n v="-1"/>
+    <n v="7"/>
+    <n v="58"/>
+    <n v="32"/>
+    <n v="33"/>
+    <n v="2"/>
+    <n v="496758"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Palermo"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="12"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="32"/>
+    <n v="33"/>
+    <n v="2"/>
+    <n v="496842"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Palermo"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="19"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="57"/>
+    <n v="33"/>
+    <n v="2"/>
+    <n v="496367"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Palermo"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="33"/>
+    <n v="38"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="57"/>
+    <n v="33"/>
+    <n v="35"/>
+    <n v="495113"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Neapol"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="36"/>
+    <n v="35"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="57"/>
+    <n v="33"/>
+    <n v="35"/>
+    <n v="496373"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Neapol"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="66"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="57"/>
+    <n v="38"/>
+    <n v="35"/>
+    <n v="496043"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Neapol"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="41"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="57"/>
+    <n v="38"/>
+    <n v="70"/>
+    <n v="494608"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Monako"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="38"/>
+    <n v="98"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="498332"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Monako"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="23"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="32"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="498102"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Barcelona"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="38"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="28"/>
+    <n v="57"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="498254"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Barcelona"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="60"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="28"/>
+    <n v="57"/>
+    <n v="42"/>
+    <n v="70"/>
+    <n v="495734"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Barcelona"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="28"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="57"/>
+    <n v="42"/>
+    <n v="70"/>
+    <n v="495510"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Barcelona"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="-1"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="76"/>
+    <n v="42"/>
+    <n v="70"/>
+    <n v="495149"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Walencja"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="72"/>
+    <n v="28"/>
+    <n v="12"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="4"/>
+    <n v="42"/>
+    <n v="70"/>
+    <n v="497165"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Walencja"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="42"/>
+    <n v="90"/>
+    <n v="-1"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="500945"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Walencja"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="44"/>
+    <n v="-1"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="112"/>
+    <n v="499097"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Walencja"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="33"/>
+    <n v="26"/>
+    <n v="-1"/>
+    <n v="28"/>
+    <n v="61"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="112"/>
+    <n v="498239"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Walencja"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="-1"/>
+    <n v="37"/>
+    <n v="61"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="112"/>
+    <n v="498158"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Algier"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="29"/>
+    <n v="16"/>
+    <n v="37"/>
+    <n v="61"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="112"/>
+    <n v="498274"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Algier"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="37"/>
+    <n v="12"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="61"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="112"/>
+    <n v="498718"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Algier"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="42"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="61"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="147"/>
+    <n v="497248"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Algier"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="66"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="61"/>
+    <n v="0"/>
+    <n v="32"/>
+    <n v="147"/>
+    <n v="495136"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Tunis"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="32"/>
+    <n v="92"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="61"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="147"/>
+    <n v="498080"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Tunis"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="48"/>
+    <n v="43"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="61"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="195"/>
+    <n v="496016"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Benghazi"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="191"/>
+    <n v="60"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="61"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="507476"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Benghazi"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="24"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="507260"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Benghazi"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="65"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="4"/>
+    <n v="504920"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Aleksandria"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="47"/>
+    <n v="7"/>
+    <n v="25"/>
+    <n v="47"/>
+    <n v="70"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="4"/>
+    <n v="504591"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Aleksandria"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="63"/>
+    <n v="-1"/>
+    <n v="47"/>
+    <n v="70"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="504843"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Aleksandria"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="19"/>
+    <n v="-1"/>
+    <n v="47"/>
+    <n v="70"/>
+    <n v="8"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="504691"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Aleksandria"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="22"/>
+    <n v="-1"/>
+    <n v="47"/>
+    <n v="73"/>
+    <n v="8"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="504625"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Aleksandria"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="41"/>
+    <n v="59"/>
+    <n v="-1"/>
+    <n v="47"/>
+    <n v="73"/>
+    <n v="8"/>
+    <n v="77"/>
+    <n v="0"/>
+    <n v="502206"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Bejrut"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="40"/>
+    <n v="20"/>
+    <n v="47"/>
+    <n v="73"/>
+    <n v="8"/>
+    <n v="77"/>
+    <n v="44"/>
+    <n v="500446"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Bejrut"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="45"/>
+    <n v="12"/>
+    <n v="-1"/>
+    <n v="2"/>
+    <n v="73"/>
+    <n v="8"/>
+    <n v="77"/>
+    <n v="44"/>
+    <n v="500986"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Bejrut"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="40"/>
+    <n v="20"/>
+    <n v="-1"/>
+    <n v="2"/>
+    <n v="73"/>
+    <n v="48"/>
+    <n v="77"/>
+    <n v="44"/>
+    <n v="500186"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Bejrut"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="63"/>
+    <n v="-1"/>
+    <n v="2"/>
+    <n v="73"/>
+    <n v="48"/>
+    <n v="80"/>
+    <n v="44"/>
+    <n v="499997"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Bejrut"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="24"/>
+    <n v="-1"/>
+    <n v="2"/>
+    <n v="90"/>
+    <n v="48"/>
+    <n v="80"/>
+    <n v="44"/>
+    <n v="499589"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Palermo"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="12"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="90"/>
+    <n v="48"/>
+    <n v="80"/>
+    <n v="44"/>
+    <n v="499613"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Palermo"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="19"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="90"/>
+    <n v="62"/>
+    <n v="80"/>
+    <n v="44"/>
+    <n v="499347"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Palermo"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="23"/>
+    <n v="23"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="113"/>
+    <n v="62"/>
+    <n v="80"/>
+    <n v="44"/>
+    <n v="498818"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Neapol"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="8"/>
+    <n v="17"/>
+    <n v="11"/>
+    <n v="113"/>
+    <n v="62"/>
+    <n v="80"/>
+    <n v="44"/>
+    <n v="498730"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Neapol"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="66"/>
+    <n v="-1"/>
+    <n v="11"/>
+    <n v="113"/>
+    <n v="62"/>
+    <n v="97"/>
+    <n v="44"/>
+    <n v="497608"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Neapol"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="41"/>
+    <n v="-1"/>
+    <n v="11"/>
+    <n v="113"/>
+    <n v="62"/>
+    <n v="97"/>
+    <n v="74"/>
+    <n v="496378"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Monako"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="98"/>
+    <n v="21"/>
+    <n v="11"/>
+    <n v="113"/>
+    <n v="62"/>
+    <n v="0"/>
+    <n v="74"/>
+    <n v="505884"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Monako"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="12"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="113"/>
+    <n v="62"/>
+    <n v="0"/>
+    <n v="74"/>
+    <n v="506016"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Monako"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="20"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="113"/>
+    <n v="79"/>
+    <n v="0"/>
+    <n v="74"/>
+    <n v="505676"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Monako"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="23"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="117"/>
+    <n v="79"/>
+    <n v="0"/>
+    <n v="74"/>
+    <n v="505584"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Barcelona"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="31"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="117"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="74"/>
+    <n v="508033"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Barcelona"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="33"/>
+    <n v="60"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="117"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="74"/>
+    <n v="506053"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Barcelona"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="26"/>
+    <n v="23"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="143"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="74"/>
+    <n v="505455"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Walencja"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="40"/>
+    <n v="22"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="143"/>
+    <n v="40"/>
+    <n v="33"/>
+    <n v="74"/>
+    <n v="504575"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Walencja"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="9"/>
+    <n v="-1"/>
+    <n v="42"/>
+    <n v="143"/>
+    <n v="40"/>
+    <n v="33"/>
+    <n v="74"/>
+    <n v="504197"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Walencja"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="26"/>
+    <n v="-1"/>
+    <n v="42"/>
+    <n v="185"/>
+    <n v="40"/>
+    <n v="33"/>
+    <n v="74"/>
+    <n v="503105"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Walencja"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="70"/>
+    <n v="-1"/>
+    <n v="42"/>
+    <n v="185"/>
+    <n v="40"/>
+    <n v="42"/>
+    <n v="74"/>
+    <n v="502475"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Walencja"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="39"/>
+    <n v="44"/>
+    <n v="-1"/>
+    <n v="42"/>
+    <n v="185"/>
+    <n v="40"/>
+    <n v="42"/>
+    <n v="113"/>
+    <n v="500759"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Algier"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="112"/>
+    <n v="59"/>
+    <n v="16"/>
+    <n v="42"/>
+    <n v="185"/>
+    <n v="40"/>
+    <n v="42"/>
+    <n v="1"/>
+    <n v="507367"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Algier"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="34"/>
+    <n v="66"/>
+    <n v="-1"/>
+    <n v="42"/>
+    <n v="185"/>
+    <n v="40"/>
+    <n v="76"/>
+    <n v="1"/>
+    <n v="505123"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Algier"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="21"/>
+    <n v="-1"/>
+    <n v="42"/>
+    <n v="185"/>
+    <n v="45"/>
+    <n v="76"/>
+    <n v="1"/>
+    <n v="505018"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Tunis"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="74"/>
+    <n v="92"/>
+    <n v="14"/>
+    <n v="42"/>
+    <n v="185"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="511826"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Tunis"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="26"/>
+    <n v="-1"/>
+    <n v="42"/>
+    <n v="199"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="511462"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Benghazi"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="18"/>
+    <n v="42"/>
+    <n v="199"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="511522"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Benghazi"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="43"/>
+    <n v="36"/>
+    <n v="-1"/>
+    <n v="42"/>
+    <n v="156"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="513070"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Benghazi"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="72"/>
+    <n v="156"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="512830"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Benghazi"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="20"/>
+    <n v="-1"/>
+    <n v="72"/>
+    <n v="156"/>
+    <n v="59"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="512550"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Aleksandria"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="33"/>
+    <n v="38"/>
+    <n v="25"/>
+    <n v="72"/>
+    <n v="123"/>
+    <n v="59"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="513804"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Aleksandria"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="37"/>
+    <n v="-1"/>
+    <n v="72"/>
+    <n v="123"/>
+    <n v="59"/>
+    <n v="2"/>
+    <n v="35"/>
+    <n v="512509"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Aleksandria"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="40"/>
+    <n v="19"/>
+    <n v="-1"/>
+    <n v="72"/>
+    <n v="123"/>
+    <n v="99"/>
+    <n v="2"/>
+    <n v="35"/>
+    <n v="511749"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Bejrut"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="36"/>
+    <n v="20"/>
+    <n v="72"/>
+    <n v="102"/>
+    <n v="99"/>
+    <n v="2"/>
+    <n v="35"/>
+    <n v="512505"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Bejrut"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="97"/>
+    <n v="-1"/>
+    <n v="72"/>
+    <n v="102"/>
+    <n v="99"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="512699"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Bejrut"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="-1"/>
+    <n v="72"/>
+    <n v="102"/>
+    <n v="111"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="512459"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Bejrut"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="87"/>
+    <n v="102"/>
+    <n v="111"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="512339"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Bejrut"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="40"/>
+    <n v="-1"/>
+    <n v="87"/>
+    <n v="102"/>
+    <n v="111"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="512299"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="Palermo"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="86"/>
+    <n v="12"/>
+    <n v="23"/>
+    <n v="1"/>
+    <n v="102"/>
+    <n v="111"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="513331"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="Palermo"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="110"/>
+    <n v="31"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="102"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="516741"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="Palermo"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="33"/>
+    <n v="38"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="102"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="69"/>
+    <n v="515487"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="Palermo"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="23"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="115"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="69"/>
+    <n v="515188"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="Palermo"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="37"/>
+    <n v="61"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="115"/>
+    <n v="1"/>
+    <n v="37"/>
+    <n v="69"/>
+    <n v="512931"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Neapol"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="115"/>
+    <n v="1"/>
+    <n v="37"/>
+    <n v="69"/>
+    <n v="512943"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Neapol"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="59"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="115"/>
+    <n v="1"/>
+    <n v="37"/>
+    <n v="1"/>
+    <n v="516955"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Neapol"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="66"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="115"/>
+    <n v="1"/>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="514645"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Neapol"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="21"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="115"/>
+    <n v="26"/>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="514120"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Neapol"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="25"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="125"/>
+    <n v="26"/>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="513870"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="Monako"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="38"/>
+    <n v="37"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="87"/>
+    <n v="26"/>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="515276"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="Monako"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="22"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="22"/>
+    <n v="87"/>
+    <n v="26"/>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="515100"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="Monako"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="20"/>
+    <n v="-1"/>
+    <n v="22"/>
+    <n v="87"/>
+    <n v="51"/>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="514600"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="Monako"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="39"/>
+    <n v="-1"/>
+    <n v="22"/>
+    <n v="87"/>
+    <n v="51"/>
+    <n v="72"/>
+    <n v="9"/>
+    <n v="514288"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="Monako"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="45"/>
+    <n v="62"/>
+    <n v="-1"/>
+    <n v="22"/>
+    <n v="87"/>
+    <n v="51"/>
+    <n v="117"/>
+    <n v="9"/>
+    <n v="511498"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="Barcelona"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="116"/>
+    <n v="100"/>
+    <n v="24"/>
+    <n v="22"/>
+    <n v="87"/>
+    <n v="51"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="523098"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="Barcelona"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="19"/>
+    <n v="-1"/>
+    <n v="22"/>
+    <n v="87"/>
+    <n v="80"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="522547"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="Walencja"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="34"/>
+    <n v="12"/>
+    <n v="22"/>
+    <n v="82"/>
+    <n v="80"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="522717"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="Walencja"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="11"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="82"/>
+    <n v="80"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="522959"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="Walencja"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="37"/>
+    <n v="22"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="82"/>
+    <n v="117"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="522145"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="Walencja"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="70"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="82"/>
+    <n v="117"/>
+    <n v="11"/>
+    <n v="9"/>
+    <n v="521445"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="Walencja"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="44"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="82"/>
+    <n v="117"/>
+    <n v="11"/>
+    <n v="51"/>
+    <n v="519597"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="Algier"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="94"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="82"/>
+    <n v="117"/>
+    <n v="0"/>
+    <n v="51"/>
+    <n v="520631"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="Algier"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="48"/>
+    <n v="59"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="82"/>
+    <n v="117"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="523463"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="Algier"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="21"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="82"/>
+    <n v="137"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="523043"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="Algier"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="26"/>
+    <n v="25"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="108"/>
+    <n v="137"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="522393"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="Tunis"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="9"/>
+    <n v="14"/>
+    <n v="24"/>
+    <n v="108"/>
+    <n v="137"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="522177"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="Tunis"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="38"/>
+    <n v="68"/>
+    <n v="-1"/>
+    <n v="24"/>
+    <n v="108"/>
+    <n v="137"/>
+    <n v="38"/>
+    <n v="3"/>
+    <n v="519593"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="Tunis"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="21"/>
+    <n v="-1"/>
+    <n v="24"/>
+    <n v="108"/>
+    <n v="151"/>
+    <n v="38"/>
+    <n v="3"/>
+    <n v="519299"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="Tunis"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="43"/>
+    <n v="-1"/>
+    <n v="24"/>
+    <n v="108"/>
+    <n v="151"/>
+    <n v="38"/>
+    <n v="7"/>
+    <n v="519127"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="Benghazi"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="36"/>
+    <n v="18"/>
+    <n v="24"/>
+    <n v="89"/>
+    <n v="151"/>
+    <n v="38"/>
+    <n v="7"/>
+    <n v="519811"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="Benghazi"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="65"/>
+    <n v="-1"/>
+    <n v="24"/>
+    <n v="89"/>
+    <n v="151"/>
+    <n v="68"/>
+    <n v="7"/>
+    <n v="517861"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="Aleksandria"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="63"/>
+    <n v="25"/>
+    <n v="24"/>
+    <n v="89"/>
+    <n v="151"/>
+    <n v="68"/>
+    <n v="1"/>
+    <n v="518239"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="Aleksandria"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="59"/>
+    <n v="-1"/>
+    <n v="24"/>
+    <n v="89"/>
+    <n v="151"/>
+    <n v="111"/>
+    <n v="1"/>
+    <n v="515702"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="Bejrut"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="61"/>
+    <n v="20"/>
+    <n v="24"/>
+    <n v="89"/>
+    <n v="151"/>
+    <n v="111"/>
+    <n v="0"/>
+    <n v="515763"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="Bejrut"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="147"/>
+    <n v="30"/>
+    <n v="-1"/>
+    <n v="24"/>
+    <n v="89"/>
+    <n v="4"/>
+    <n v="111"/>
+    <n v="0"/>
+    <n v="520173"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="Bejrut"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="39"/>
+    <n v="89"/>
+    <n v="4"/>
+    <n v="111"/>
+    <n v="0"/>
+    <n v="520053"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="Bejrut"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="63"/>
+    <n v="-1"/>
+    <n v="39"/>
+    <n v="89"/>
+    <n v="4"/>
+    <n v="135"/>
+    <n v="0"/>
+    <n v="518541"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="Bejrut"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="24"/>
+    <n v="-1"/>
+    <n v="39"/>
+    <n v="108"/>
+    <n v="4"/>
+    <n v="135"/>
+    <n v="0"/>
+    <n v="518085"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="Palermo"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="134"/>
+    <n v="99"/>
+    <n v="23"/>
+    <n v="39"/>
+    <n v="108"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="531351"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="Palermo"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="38"/>
+    <n v="-1"/>
+    <n v="39"/>
+    <n v="108"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="530895"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="Neapol"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="30"/>
+    <n v="17"/>
+    <n v="39"/>
+    <n v="108"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="531015"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="Neapol"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="26"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="65"/>
+    <n v="108"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="530807"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="Neapol"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="38"/>
+    <n v="66"/>
+    <n v="-1"/>
+    <n v="65"/>
+    <n v="108"/>
+    <n v="0"/>
+    <n v="39"/>
+    <n v="12"/>
+    <n v="528299"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="Monako"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="38"/>
+    <n v="98"/>
+    <n v="21"/>
+    <n v="65"/>
+    <n v="108"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="532023"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="Monako"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="44"/>
+    <n v="37"/>
+    <n v="-1"/>
+    <n v="65"/>
+    <n v="64"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="533651"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="Monako"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="21"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="86"/>
+    <n v="64"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="533483"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="Monako"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="39"/>
+    <n v="-1"/>
+    <n v="86"/>
+    <n v="64"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="22"/>
+    <n v="533093"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="Barcelona"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="38"/>
+    <n v="24"/>
+    <n v="86"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="22"/>
+    <n v="533663"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="Barcelona"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="63"/>
+    <n v="-1"/>
+    <n v="86"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="535049"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="Barcelona"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="60"/>
+    <n v="-1"/>
+    <n v="86"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="534509"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="Barcelona"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="19"/>
+    <n v="-1"/>
+    <n v="86"/>
+    <n v="49"/>
+    <n v="6"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="534395"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="Barcelona"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="90"/>
+    <n v="49"/>
+    <n v="6"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="534363"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="Walencja"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="90"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="534513"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="Walencja"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48"/>
+    <n v="79"/>
+    <n v="-1"/>
+    <n v="90"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="0"/>
+    <n v="530721"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="Algier"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="34"/>
+    <n v="42"/>
+    <n v="16"/>
+    <n v="90"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="34"/>
+    <n v="529293"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="Algier"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="49"/>
+    <n v="35"/>
+    <n v="-1"/>
+    <n v="90"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="34"/>
+    <n v="531008"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="Algier"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="34"/>
+    <n v="530928"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="Algier"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="47"/>
+    <n v="21"/>
+    <n v="-1"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="47"/>
+    <n v="58"/>
+    <n v="34"/>
+    <n v="529941"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="Algier"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48"/>
+    <n v="66"/>
+    <n v="-1"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="47"/>
+    <n v="106"/>
+    <n v="34"/>
+    <n v="526773"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="Tunis"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="34"/>
+    <n v="58"/>
+    <n v="14"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="47"/>
+    <n v="106"/>
+    <n v="0"/>
+    <n v="528745"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="Tunis"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="-1"/>
+    <n v="105"/>
+    <n v="0"/>
+    <n v="47"/>
+    <n v="106"/>
+    <n v="0"/>
+    <n v="528700"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="Benghazi"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="46"/>
+    <n v="30"/>
+    <n v="18"/>
+    <n v="105"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="106"/>
+    <n v="0"/>
+    <n v="530080"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="Benghazi"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="49"/>
+    <n v="65"/>
+    <n v="-1"/>
+    <n v="105"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="155"/>
+    <n v="0"/>
+    <n v="526895"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="Benghazi"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="121"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="155"/>
+    <n v="0"/>
+    <n v="526767"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="Aleksandria"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="37"/>
+    <n v="25"/>
+    <n v="121"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="155"/>
+    <n v="5"/>
+    <n v="526582"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="Aleksandria"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="32"/>
+    <n v="-1"/>
+    <n v="121"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="155"/>
+    <n v="5"/>
+    <n v="526614"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="Aleksandria"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="34"/>
+    <n v="7"/>
+    <n v="-1"/>
+    <n v="155"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="155"/>
+    <n v="5"/>
+    <n v="526376"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="Aleksandria"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="59"/>
+    <n v="-1"/>
+    <n v="155"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="184"/>
+    <n v="5"/>
+    <n v="524665"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="Bejrut"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="34"/>
+    <n v="24"/>
+    <n v="20"/>
+    <n v="155"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="184"/>
+    <n v="5"/>
+    <n v="523849"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="Bejrut"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="27"/>
+    <n v="20"/>
+    <n v="-1"/>
+    <n v="155"/>
+    <n v="34"/>
+    <n v="27"/>
+    <n v="184"/>
+    <n v="5"/>
+    <n v="523309"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="Bejrut"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="40"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="195"/>
+    <n v="34"/>
+    <n v="27"/>
+    <n v="184"/>
+    <n v="5"/>
+    <n v="522989"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <s v="Palermo"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="184"/>
+    <n v="99"/>
+    <n v="23"/>
+    <n v="195"/>
+    <n v="34"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="541205"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <s v="Palermo"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="48"/>
+    <n v="38"/>
+    <n v="-1"/>
+    <n v="195"/>
+    <n v="34"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="53"/>
+    <n v="539381"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <s v="Palermo"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="21"/>
+    <n v="23"/>
+    <n v="-1"/>
+    <n v="195"/>
+    <n v="55"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="53"/>
+    <n v="538898"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <s v="Neapol"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="47"/>
+    <n v="66"/>
+    <n v="17"/>
+    <n v="195"/>
+    <n v="55"/>
+    <n v="27"/>
+    <n v="47"/>
+    <n v="53"/>
+    <n v="535796"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <s v="Neapol"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="25"/>
+    <n v="-1"/>
+    <n v="195"/>
+    <n v="61"/>
+    <n v="27"/>
+    <n v="47"/>
+    <n v="53"/>
+    <n v="535646"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <s v="Neapol"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="47"/>
+    <n v="41"/>
+    <n v="-1"/>
+    <n v="195"/>
+    <n v="61"/>
+    <n v="27"/>
+    <n v="47"/>
+    <n v="100"/>
+    <n v="533719"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="Monako"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="192"/>
+    <n v="12"/>
+    <n v="21"/>
+    <n v="3"/>
+    <n v="61"/>
+    <n v="27"/>
+    <n v="47"/>
+    <n v="100"/>
+    <n v="536023"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="Monako"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="48"/>
+    <n v="37"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="27"/>
+    <n v="47"/>
+    <n v="100"/>
+    <n v="537799"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="Monako"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18"/>
+    <n v="62"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="27"/>
+    <n v="65"/>
+    <n v="100"/>
+    <n v="536683"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="Monako"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="25"/>
+    <n v="39"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="27"/>
+    <n v="65"/>
+    <n v="125"/>
+    <n v="535708"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="Monako"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="29"/>
+    <n v="65"/>
+    <n v="125"/>
+    <n v="535668"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="Barcelona"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="38"/>
+    <n v="24"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="29"/>
+    <n v="65"/>
+    <n v="125"/>
+    <n v="536162"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="Barcelona"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="63"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="29"/>
+    <n v="65"/>
+    <n v="4"/>
+    <n v="543785"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="Barcelona"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="19"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="59"/>
+    <n v="65"/>
+    <n v="4"/>
+    <n v="543215"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="Barcelona"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="46"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="59"/>
+    <n v="65"/>
+    <n v="4"/>
+    <n v="542847"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="Walencja"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="49"/>
+    <n v="11"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="59"/>
+    <n v="65"/>
+    <n v="4"/>
+    <n v="543386"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="Walencja"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="61"/>
+    <n v="90"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="59"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="548876"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="Walencja"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="22"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="78"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="548458"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="Walencja"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="22"/>
+    <n v="44"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="78"/>
+    <n v="4"/>
+    <n v="26"/>
+    <n v="547490"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="Algier"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="25"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="78"/>
+    <n v="4"/>
+    <n v="26"/>
+    <n v="547265"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="Algier"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="94"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="78"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="547641"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="Algier"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="21"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="86"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="547473"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="Algier"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="47"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="47"/>
+    <n v="9"/>
+    <n v="86"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="547097"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <s v="Tunis"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="82"/>
+    <n v="29"/>
+    <n v="14"/>
+    <n v="47"/>
+    <n v="9"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="549475"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <s v="Tunis"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="26"/>
+    <n v="58"/>
+    <n v="-1"/>
+    <n v="47"/>
+    <n v="9"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="550983"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <s v="Tunis"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="9"/>
+    <n v="-1"/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="550767"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <s v="Tunis"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="26"/>
+    <n v="-1"/>
+    <n v="71"/>
+    <n v="45"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="549831"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <s v="Tunis"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="68"/>
+    <n v="-1"/>
+    <n v="71"/>
+    <n v="45"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="549423"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <s v="Benghazi"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="45"/>
+    <n v="36"/>
+    <n v="18"/>
+    <n v="71"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="551043"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <s v="Benghazi"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="18"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="89"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="550899"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <s v="Benghazi"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="41"/>
+    <n v="-1"/>
+    <n v="89"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="20"/>
+    <n v="550079"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <s v="Aleksandria"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="32"/>
+    <n v="25"/>
+    <n v="89"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="20"/>
+    <n v="550207"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <s v="Aleksandria"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="48"/>
+    <n v="37"/>
+    <n v="-1"/>
+    <n v="89"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="68"/>
+    <n v="548431"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <s v="Bejrut"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="61"/>
+    <n v="20"/>
+    <n v="89"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="552335"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <s v="Bejrut"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="63"/>
+    <n v="-1"/>
+    <n v="89"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="49"/>
+    <n v="4"/>
+    <n v="549626"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <s v="Bejrut"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="24"/>
+    <n v="24"/>
+    <n v="-1"/>
+    <n v="89"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="49"/>
+    <n v="4"/>
+    <n v="549050"/>
+    <b v="1"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <s v="Palermo"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="62"/>
+    <n v="23"/>
+    <n v="89"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="549298"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <s v="Palermo"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="19"/>
+    <n v="-1"/>
+    <n v="89"/>
+    <n v="24"/>
+    <n v="35"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="548633"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <s v="Palermo"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="41"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="130"/>
+    <n v="24"/>
+    <n v="35"/>
+    <n v="49"/>
+    <n v="0"/>
+    <n v="548305"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <s v="Palermo"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23"/>
+    <n v="61"/>
+    <n v="-1"/>
+    <n v="130"/>
+    <n v="24"/>
+    <n v="35"/>
+    <n v="72"/>
+    <n v="0"/>
+    <n v="546902"/>
+    <b v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <s v="Palermo"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="46"/>
+    <n v="23"/>
+    <n v="-1"/>
+    <n v="130"/>
+    <n v="70"/>
+    <n v="35"/>
+    <n v="72"/>
+    <n v="0"/>
+    <n v="545844"/>
+    <b v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{065B7493-E61C-4274-8E5E-D0AF95A4AA10}" name="Tabela przestawna1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" missingCaption="0" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item n="Wyładunek" x="1"/>
+        <item n="Załadunek" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="14"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma z ile ton" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="statek_1" connectionId="1" xr16:uid="{743F08AB-80F6-8B45-9A7D-B6A02A2F486F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -469,7 +5782,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -575,7 +5888,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -725,30 +6038,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F77C0-1014-7247-BC59-F0AED6D8A65C}">
-  <dimension ref="A1:N228"/>
+  <dimension ref="A1:N233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +6105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42370</v>
       </c>
@@ -843,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42370</v>
       </c>
@@ -895,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42370</v>
       </c>
@@ -947,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42370</v>
       </c>
@@ -999,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42370</v>
       </c>
@@ -1051,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42385</v>
       </c>
@@ -1103,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42385</v>
       </c>
@@ -1155,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42393</v>
       </c>
@@ -1207,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42393</v>
       </c>
@@ -1259,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>42393</v>
       </c>
@@ -1311,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42419</v>
       </c>
@@ -1363,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42419</v>
       </c>
@@ -1415,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42419</v>
       </c>
@@ -1467,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42419</v>
       </c>
@@ -1519,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42440</v>
       </c>
@@ -1571,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42440</v>
       </c>
@@ -1623,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42440</v>
       </c>
@@ -1675,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42440</v>
       </c>
@@ -1727,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42464</v>
       </c>
@@ -1779,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42464</v>
       </c>
@@ -1831,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42464</v>
       </c>
@@ -1883,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42482</v>
       </c>
@@ -1935,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42482</v>
       </c>
@@ -1987,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42482</v>
       </c>
@@ -2039,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42504</v>
       </c>
@@ -2091,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42504</v>
       </c>
@@ -2143,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42529</v>
       </c>
@@ -2195,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42529</v>
       </c>
@@ -2247,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42529</v>
       </c>
@@ -2299,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42529</v>
       </c>
@@ -2351,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42542</v>
       </c>
@@ -2403,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42542</v>
       </c>
@@ -2455,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42542</v>
       </c>
@@ -2507,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42542</v>
       </c>
@@ -2559,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42542</v>
       </c>
@@ -2611,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42559</v>
       </c>
@@ -2663,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>42559</v>
       </c>
@@ -2715,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42559</v>
       </c>
@@ -2767,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42559</v>
       </c>
@@ -2819,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42574</v>
       </c>
@@ -2871,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42574</v>
       </c>
@@ -2923,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42593</v>
       </c>
@@ -2975,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42593</v>
       </c>
@@ -3027,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42593</v>
       </c>
@@ -3079,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42619</v>
       </c>
@@ -3131,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42619</v>
       </c>
@@ -3183,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42619</v>
       </c>
@@ -3235,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42619</v>
       </c>
@@ -3287,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42619</v>
       </c>
@@ -3339,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42640</v>
       </c>
@@ -3391,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>42640</v>
       </c>
@@ -3443,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42640</v>
       </c>
@@ -3495,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42640</v>
       </c>
@@ -3547,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42640</v>
       </c>
@@ -3599,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42664</v>
       </c>
@@ -3651,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42664</v>
       </c>
@@ -3703,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>42664</v>
       </c>
@@ -3755,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42682</v>
       </c>
@@ -3807,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>42682</v>
       </c>
@@ -3859,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>42682</v>
       </c>
@@ -3911,7 +9224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42704</v>
       </c>
@@ -3963,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42704</v>
       </c>
@@ -4015,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42704</v>
       </c>
@@ -4067,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42704</v>
       </c>
@@ -4119,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42729</v>
       </c>
@@ -4171,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42729</v>
       </c>
@@ -4223,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42729</v>
       </c>
@@ -4275,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42742</v>
       </c>
@@ -4327,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42742</v>
       </c>
@@ -4379,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42742</v>
       </c>
@@ -4431,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42742</v>
       </c>
@@ -4483,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42742</v>
       </c>
@@ -4535,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42759</v>
       </c>
@@ -4587,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42759</v>
       </c>
@@ -4639,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42759</v>
       </c>
@@ -4691,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42774</v>
       </c>
@@ -4743,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42774</v>
       </c>
@@ -4795,7 +10108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42793</v>
       </c>
@@ -4847,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42793</v>
       </c>
@@ -4899,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42793</v>
       </c>
@@ -4951,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42793</v>
       </c>
@@ -5003,7 +10316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42819</v>
       </c>
@@ -5055,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42819</v>
       </c>
@@ -5107,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42819</v>
       </c>
@@ -5159,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42840</v>
       </c>
@@ -5211,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42840</v>
       </c>
@@ -5263,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42840</v>
       </c>
@@ -5315,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42840</v>
       </c>
@@ -5367,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42840</v>
       </c>
@@ -5419,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42864</v>
       </c>
@@ -5471,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42864</v>
       </c>
@@ -5523,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42864</v>
       </c>
@@ -5575,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42864</v>
       </c>
@@ -5627,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42864</v>
       </c>
@@ -5679,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42882</v>
       </c>
@@ -5731,7 +11044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42882</v>
       </c>
@@ -5783,7 +11096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42882</v>
       </c>
@@ -5835,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42882</v>
       </c>
@@ -5887,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42882</v>
       </c>
@@ -5939,7 +11252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42904</v>
       </c>
@@ -5991,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42904</v>
       </c>
@@ -6043,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42904</v>
       </c>
@@ -6095,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42904</v>
       </c>
@@ -6147,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42904</v>
       </c>
@@ -6199,7 +11512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42929</v>
       </c>
@@ -6251,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42929</v>
       </c>
@@ -6303,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42942</v>
       </c>
@@ -6355,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42942</v>
       </c>
@@ -6407,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42942</v>
       </c>
@@ -6459,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42942</v>
       </c>
@@ -6511,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42942</v>
       </c>
@@ -6563,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42959</v>
       </c>
@@ -6615,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42959</v>
       </c>
@@ -6667,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42959</v>
       </c>
@@ -6719,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42959</v>
       </c>
@@ -6771,7 +12084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42974</v>
       </c>
@@ -6823,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42974</v>
       </c>
@@ -6875,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42974</v>
       </c>
@@ -6927,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>42974</v>
       </c>
@@ -6979,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>42993</v>
       </c>
@@ -7031,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>42993</v>
       </c>
@@ -7083,7 +12396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43019</v>
       </c>
@@ -7135,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43019</v>
       </c>
@@ -7187,7 +12500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43040</v>
       </c>
@@ -7239,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43040</v>
       </c>
@@ -7291,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43040</v>
       </c>
@@ -7343,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43040</v>
       </c>
@@ -7395,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43040</v>
       </c>
@@ -7447,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43064</v>
       </c>
@@ -7499,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43064</v>
       </c>
@@ -7551,7 +12864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43082</v>
       </c>
@@ -7603,7 +12916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43082</v>
       </c>
@@ -7655,7 +12968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43082</v>
       </c>
@@ -7707,7 +13020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43104</v>
       </c>
@@ -7759,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43104</v>
       </c>
@@ -7811,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43104</v>
       </c>
@@ -7863,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43104</v>
       </c>
@@ -7915,7 +13228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43129</v>
       </c>
@@ -7967,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43129</v>
       </c>
@@ -8019,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43129</v>
       </c>
@@ -8071,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43129</v>
       </c>
@@ -8123,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43129</v>
       </c>
@@ -8175,7 +13488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43130</v>
       </c>
@@ -8227,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43130</v>
       </c>
@@ -8279,7 +13592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43147</v>
       </c>
@@ -8331,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43147</v>
       </c>
@@ -8383,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43147</v>
       </c>
@@ -8435,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43147</v>
       </c>
@@ -8487,7 +13800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43147</v>
       </c>
@@ -8539,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43162</v>
       </c>
@@ -8591,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>43162</v>
       </c>
@@ -8643,7 +13956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>43181</v>
       </c>
@@ -8695,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>43181</v>
       </c>
@@ -8747,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>43181</v>
       </c>
@@ -8799,7 +14112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>43207</v>
       </c>
@@ -8851,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>43207</v>
       </c>
@@ -8903,7 +14216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43207</v>
       </c>
@@ -8955,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>43207</v>
       </c>
@@ -9007,7 +14320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>43228</v>
       </c>
@@ -9059,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>43228</v>
       </c>
@@ -9111,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>43228</v>
       </c>
@@ -9163,7 +14476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>43252</v>
       </c>
@@ -9215,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>43252</v>
       </c>
@@ -9267,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>43252</v>
       </c>
@@ -9319,7 +14632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>43270</v>
       </c>
@@ -9371,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>43270</v>
       </c>
@@ -9423,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>43270</v>
       </c>
@@ -9475,7 +14788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43292</v>
       </c>
@@ -9527,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>43292</v>
       </c>
@@ -9579,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>43292</v>
       </c>
@@ -9631,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>43292</v>
       </c>
@@ -9683,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>43292</v>
       </c>
@@ -9735,7 +15048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>43317</v>
       </c>
@@ -9787,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>43317</v>
       </c>
@@ -9839,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>43317</v>
       </c>
@@ -9891,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>43317</v>
       </c>
@@ -9943,7 +15256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>43330</v>
       </c>
@@ -9995,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>43330</v>
       </c>
@@ -10047,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>43330</v>
       </c>
@@ -10099,7 +15412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>43330</v>
       </c>
@@ -10151,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>43347</v>
       </c>
@@ -10203,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43347</v>
       </c>
@@ -10255,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>43347</v>
       </c>
@@ -10307,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>43347</v>
       </c>
@@ -10359,7 +15672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>43362</v>
       </c>
@@ -10411,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>43362</v>
       </c>
@@ -10463,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>43362</v>
       </c>
@@ -10515,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43362</v>
       </c>
@@ -10567,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>43362</v>
       </c>
@@ -10619,7 +15932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>43381</v>
       </c>
@@ -10671,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43381</v>
       </c>
@@ -10723,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>43381</v>
       </c>
@@ -10775,7 +16088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43407</v>
       </c>
@@ -10827,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43407</v>
       </c>
@@ -10879,7 +16192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="17">
         <v>43428</v>
       </c>
@@ -10931,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43428</v>
       </c>
@@ -10983,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43428</v>
       </c>
@@ -11035,7 +16348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43452</v>
       </c>
@@ -11087,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43452</v>
       </c>
@@ -11139,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43452</v>
       </c>
@@ -11191,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43452</v>
       </c>
@@ -11243,7 +16556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43452</v>
       </c>
@@ -11295,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F205" t="s">
         <v>28</v>
       </c>
@@ -11304,7 +16617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -11315,7 +16628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -11328,7 +16641,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -11341,7 +16654,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -11354,7 +16667,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>7</v>
       </c>
@@ -11368,7 +16681,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -11381,172 +16694,663 @@
         <v>784</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="9">
         <f>G205</f>
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="9" t="s">
+      <c r="B216" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="20">
+        <v>42401</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="C217" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="D217" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="E217" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="9" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="20">
+        <v>43313</v>
+      </c>
+      <c r="B218" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="C218" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="D218" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="E218" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="9" t="s">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B222" s="12">
+      <c r="B227" s="12">
         <f>$M$203</f>
         <v>545844</v>
       </c>
-      <c r="F222" s="19">
-        <f>_xlfn.XLOOKUP(550079, M2:M203, A2:A203)</f>
+      <c r="F227" s="19">
+        <f>_xlfn.XLOOKUP(B228, $M$2:$M$203,$A$2:$A$203)</f>
         <v>43381</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="16" t="s">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B223" s="12">
+      <c r="B228" s="12">
         <f>_xlfn.MAXIFS($M$2:$M$203, $N$2:$N$203, TRUE)</f>
         <v>550079</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C228" t="s">
         <v>45</v>
       </c>
-      <c r="F223" s="13">
+      <c r="F228" s="13">
         <v>43381</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="10" t="s">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B232" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="10">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="10">
         <f>MIN($M$2:$M$203)</f>
         <v>493601</v>
       </c>
-      <c r="B228" s="12">
-        <f>500000 - A228</f>
+      <c r="B233" s="12">
+        <f>500000 - A233</f>
         <v>6399</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F143F54-8A47-914F-95B3-B59698086A42}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D23A4D-03E0-47E5-838A-1521EC113977}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <f>IF($C2="T1", IF($D2="Z", $E2, -$E2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <f t="shared" ref="B1:K1" si="0">IF($C2="T1", IF($D2="Z", $E2, -$E2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="23">
+        <v>277</v>
+      </c>
+      <c r="C5" s="23">
+        <v>351</v>
+      </c>
+      <c r="D5" s="23">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="23">
+        <v>32</v>
+      </c>
+      <c r="C6" s="23">
+        <v>76</v>
+      </c>
+      <c r="D6" s="23">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="23">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23">
+        <v>8</v>
+      </c>
+      <c r="D7" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="23">
+        <v>50</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0</v>
+      </c>
+      <c r="D8" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23">
+        <v>68</v>
+      </c>
+      <c r="D9" s="23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
+        <v>42</v>
+      </c>
+      <c r="D10" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
+        <v>83</v>
+      </c>
+      <c r="D11" s="23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="23">
+        <v>191</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="23">
+        <v>4</v>
+      </c>
+      <c r="C13" s="23">
+        <v>44</v>
+      </c>
+      <c r="D13" s="23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="23">
+        <v>30</v>
+      </c>
+      <c r="D14" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="23">
+        <v>236</v>
+      </c>
+      <c r="C15" s="23">
+        <v>174</v>
+      </c>
+      <c r="D15" s="23">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="23">
+        <v>112</v>
+      </c>
+      <c r="C16" s="23">
+        <v>39</v>
+      </c>
+      <c r="D16" s="23">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="23">
+        <v>35</v>
+      </c>
+      <c r="D18" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="23">
+        <v>68</v>
+      </c>
+      <c r="C20" s="23">
+        <v>33</v>
+      </c>
+      <c r="D20" s="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="23">
+        <v>0</v>
+      </c>
+      <c r="C21" s="23">
+        <v>8</v>
+      </c>
+      <c r="D21" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0</v>
+      </c>
+      <c r="C22" s="23">
+        <v>42</v>
+      </c>
+      <c r="D22" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="23">
+        <v>48</v>
+      </c>
+      <c r="C23" s="23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="23">
+        <v>6</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0</v>
+      </c>
+      <c r="D24" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="23">
+        <v>12</v>
+      </c>
+      <c r="D25" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="23">
+        <v>271</v>
+      </c>
+      <c r="C26" s="23">
+        <v>259</v>
+      </c>
+      <c r="D26" s="23">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="23">
+        <v>22</v>
+      </c>
+      <c r="C27" s="23">
+        <v>10</v>
+      </c>
+      <c r="D27" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="23">
+        <v>0</v>
+      </c>
+      <c r="C28" s="23">
+        <v>34</v>
+      </c>
+      <c r="D28" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="23">
+        <v>34</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0</v>
+      </c>
+      <c r="D29" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="23">
+        <v>0</v>
+      </c>
+      <c r="C30" s="23">
+        <v>5</v>
+      </c>
+      <c r="D30" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="23">
+        <v>0</v>
+      </c>
+      <c r="C31" s="23">
+        <v>95</v>
+      </c>
+      <c r="D31" s="23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="23">
+        <v>0</v>
+      </c>
+      <c r="C32" s="23">
+        <v>25</v>
+      </c>
+      <c r="D32" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="23">
+        <v>121</v>
+      </c>
+      <c r="C33" s="23">
+        <v>22</v>
+      </c>
+      <c r="D33" s="23">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="23">
+        <v>26</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0</v>
+      </c>
+      <c r="D34" s="23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="23">
+        <v>0</v>
+      </c>
+      <c r="C35" s="23">
+        <v>20</v>
+      </c>
+      <c r="D35" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="23">
+        <v>64</v>
+      </c>
+      <c r="C36" s="23">
+        <v>48</v>
+      </c>
+      <c r="D36" s="23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="23">
+        <v>4</v>
+      </c>
+      <c r="C37" s="23">
+        <v>0</v>
+      </c>
+      <c r="D37" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="23">
+        <v>784</v>
+      </c>
+      <c r="C38" s="23">
+        <v>784</v>
+      </c>
+      <c r="D38" s="23">
+        <v>1568</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>